--- a/general_use/SnowPit_pit_sheet_template.xlsx
+++ b/general_use/SnowPit_pit_sheet_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10102"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganmason/Documents/projects/lab_snowpits/snowpits/general_use/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FF02029-4687-FB40-9D64-6F28DB169E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405C9712-262D-404F-86C0-EF175B2D0172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="320">
   <si>
     <t>Location:</t>
   </si>
@@ -3033,69 +3033,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3143,128 +3080,236 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3272,12 +3317,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3285,28 +3324,25 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
@@ -3320,18 +3356,6 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
@@ -3363,24 +3387,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3393,174 +3408,222 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3569,95 +3632,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3668,20 +3647,25 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3705,98 +3689,114 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4205,30 +4205,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="17" thickBot="1">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="174" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="195"/>
-      <c r="D1" s="196" t="s">
+      <c r="B1" s="174"/>
+      <c r="D1" s="175" t="s">
         <v>148</v>
       </c>
-      <c r="E1" s="197"/>
-      <c r="F1" s="197"/>
-      <c r="G1" s="197"/>
-      <c r="H1" s="197"/>
-      <c r="I1" s="197"/>
-      <c r="J1" s="197"/>
-      <c r="K1" s="197"/>
-      <c r="L1" s="197"/>
-      <c r="M1" s="197"/>
-      <c r="N1" s="197"/>
-      <c r="O1" s="197"/>
-      <c r="P1" s="197"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
+      <c r="J1" s="176"/>
+      <c r="K1" s="176"/>
+      <c r="L1" s="176"/>
+      <c r="M1" s="176"/>
+      <c r="N1" s="176"/>
+      <c r="O1" s="176"/>
+      <c r="P1" s="176"/>
       <c r="Q1" s="68"/>
     </row>
     <row r="2" spans="1:18" ht="19" customHeight="1">
-      <c r="A2" s="195"/>
-      <c r="B2" s="195"/>
+      <c r="A2" s="174"/>
+      <c r="B2" s="174"/>
       <c r="D2" s="62">
         <v>1</v>
       </c>
@@ -4249,28 +4249,28 @@
       <c r="Q2" s="63"/>
     </row>
     <row r="3" spans="1:18" ht="19" customHeight="1">
-      <c r="A3" s="198" t="s">
+      <c r="A3" s="177" t="s">
         <v>267</v>
       </c>
-      <c r="B3" s="199"/>
+      <c r="B3" s="178"/>
       <c r="D3" s="64">
         <v>2</v>
       </c>
-      <c r="E3" s="200" t="s">
+      <c r="E3" s="179" t="s">
         <v>299</v>
       </c>
-      <c r="F3" s="200"/>
-      <c r="G3" s="200"/>
-      <c r="H3" s="200"/>
-      <c r="I3" s="200"/>
-      <c r="J3" s="200"/>
-      <c r="K3" s="200"/>
-      <c r="L3" s="200"/>
-      <c r="M3" s="200"/>
-      <c r="N3" s="200"/>
-      <c r="O3" s="200"/>
-      <c r="P3" s="200"/>
-      <c r="Q3" s="201"/>
+      <c r="F3" s="179"/>
+      <c r="G3" s="179"/>
+      <c r="H3" s="179"/>
+      <c r="I3" s="179"/>
+      <c r="J3" s="179"/>
+      <c r="K3" s="179"/>
+      <c r="L3" s="179"/>
+      <c r="M3" s="179"/>
+      <c r="N3" s="179"/>
+      <c r="O3" s="179"/>
+      <c r="P3" s="179"/>
+      <c r="Q3" s="180"/>
     </row>
     <row r="4" spans="1:18" ht="19" customHeight="1">
       <c r="A4" s="147"/>
@@ -4278,21 +4278,21 @@
       <c r="D4" s="62">
         <v>3</v>
       </c>
-      <c r="E4" s="202" t="s">
+      <c r="E4" s="181" t="s">
         <v>249</v>
       </c>
-      <c r="F4" s="202"/>
-      <c r="G4" s="202"/>
-      <c r="H4" s="202"/>
-      <c r="I4" s="202"/>
-      <c r="J4" s="202"/>
-      <c r="K4" s="202"/>
-      <c r="L4" s="202"/>
-      <c r="M4" s="202"/>
-      <c r="N4" s="202"/>
-      <c r="O4" s="202"/>
-      <c r="P4" s="202"/>
-      <c r="Q4" s="203"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
+      <c r="J4" s="181"/>
+      <c r="K4" s="181"/>
+      <c r="L4" s="181"/>
+      <c r="M4" s="181"/>
+      <c r="N4" s="181"/>
+      <c r="O4" s="181"/>
+      <c r="P4" s="181"/>
+      <c r="Q4" s="182"/>
     </row>
     <row r="5" spans="1:18" ht="19" customHeight="1">
       <c r="A5" s="147"/>
@@ -4475,8 +4475,8 @@
       <c r="Q12" s="63"/>
     </row>
     <row r="13" spans="1:18" ht="19" customHeight="1" thickBot="1">
-      <c r="A13" s="204"/>
-      <c r="B13" s="204"/>
+      <c r="A13" s="183"/>
+      <c r="B13" s="183"/>
       <c r="D13" s="115">
         <v>12</v>
       </c>
@@ -4497,42 +4497,42 @@
       <c r="Q13" s="116"/>
     </row>
     <row r="14" spans="1:18" ht="7" customHeight="1" thickBot="1">
-      <c r="A14" s="205"/>
-      <c r="B14" s="205"/>
+      <c r="A14" s="184"/>
+      <c r="B14" s="184"/>
       <c r="D14" s="32"/>
     </row>
     <row r="15" spans="1:18" ht="18" customHeight="1">
       <c r="A15" s="150"/>
       <c r="B15" s="150"/>
-      <c r="D15" s="192" t="s">
+      <c r="D15" s="171" t="s">
         <v>212</v>
       </c>
-      <c r="E15" s="193"/>
-      <c r="F15" s="194"/>
+      <c r="E15" s="172"/>
+      <c r="F15" s="173"/>
       <c r="G15" s="65"/>
-      <c r="H15" s="192" t="s">
+      <c r="H15" s="171" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="193"/>
-      <c r="J15" s="193"/>
-      <c r="K15" s="193"/>
-      <c r="L15" s="194"/>
+      <c r="I15" s="172"/>
+      <c r="J15" s="172"/>
+      <c r="K15" s="172"/>
+      <c r="L15" s="173"/>
       <c r="M15" s="65"/>
-      <c r="N15" s="206" t="s">
+      <c r="N15" s="185" t="s">
         <v>142</v>
       </c>
-      <c r="O15" s="207"/>
-      <c r="P15" s="207"/>
-      <c r="Q15" s="207"/>
-      <c r="R15" s="208"/>
+      <c r="O15" s="186"/>
+      <c r="P15" s="186"/>
+      <c r="Q15" s="186"/>
+      <c r="R15" s="187"/>
     </row>
     <row r="16" spans="1:18" ht="18.5" customHeight="1">
       <c r="A16" s="150"/>
       <c r="B16" s="150"/>
-      <c r="D16" s="190" t="s">
+      <c r="D16" s="188" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="191"/>
+      <c r="E16" s="189"/>
       <c r="F16" s="67" t="s">
         <v>141</v>
       </c>
@@ -4543,10 +4543,10 @@
       <c r="I16" s="146" t="s">
         <v>270</v>
       </c>
-      <c r="J16" s="191" t="s">
+      <c r="J16" s="189" t="s">
         <v>271</v>
       </c>
-      <c r="K16" s="191"/>
+      <c r="K16" s="189"/>
       <c r="L16" s="67" t="s">
         <v>272</v>
       </c>
@@ -4554,11 +4554,11 @@
       <c r="N16" s="145" t="s">
         <v>273</v>
       </c>
-      <c r="O16" s="191" t="s">
+      <c r="O16" s="189" t="s">
         <v>271</v>
       </c>
-      <c r="P16" s="191"/>
-      <c r="Q16" s="191"/>
+      <c r="P16" s="189"/>
+      <c r="Q16" s="189"/>
       <c r="R16" s="67" t="s">
         <v>270</v>
       </c>
@@ -4566,10 +4566,10 @@
     <row r="17" spans="1:18" ht="18.5" customHeight="1">
       <c r="A17" s="150"/>
       <c r="B17" s="150"/>
-      <c r="D17" s="177" t="s">
+      <c r="D17" s="190" t="s">
         <v>169</v>
       </c>
-      <c r="E17" s="178"/>
+      <c r="E17" s="191"/>
       <c r="F17" s="51" t="s">
         <v>170</v>
       </c>
@@ -4580,10 +4580,10 @@
       <c r="I17" s="153" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="186" t="s">
+      <c r="J17" s="195" t="s">
         <v>274</v>
       </c>
-      <c r="K17" s="186"/>
+      <c r="K17" s="195"/>
       <c r="L17" s="154" t="s">
         <v>275</v>
       </c>
@@ -4591,11 +4591,11 @@
       <c r="N17" s="143" t="s">
         <v>32</v>
       </c>
-      <c r="O17" s="181" t="s">
+      <c r="O17" s="192" t="s">
         <v>124</v>
       </c>
-      <c r="P17" s="182"/>
-      <c r="Q17" s="183"/>
+      <c r="P17" s="193"/>
+      <c r="Q17" s="194"/>
       <c r="R17" s="51" t="s">
         <v>125</v>
       </c>
@@ -4603,10 +4603,10 @@
     <row r="18" spans="1:18" ht="18" customHeight="1">
       <c r="A18" s="150"/>
       <c r="B18" s="150"/>
-      <c r="D18" s="177" t="s">
+      <c r="D18" s="190" t="s">
         <v>276</v>
       </c>
-      <c r="E18" s="178"/>
+      <c r="E18" s="191"/>
       <c r="F18" s="57" t="s">
         <v>118</v>
       </c>
@@ -4617,10 +4617,10 @@
       <c r="I18" s="153" t="s">
         <v>45</v>
       </c>
-      <c r="J18" s="186" t="s">
+      <c r="J18" s="195" t="s">
         <v>277</v>
       </c>
-      <c r="K18" s="186"/>
+      <c r="K18" s="195"/>
       <c r="L18" s="154" t="s">
         <v>278</v>
       </c>
@@ -4628,11 +4628,11 @@
       <c r="N18" s="143" t="s">
         <v>25</v>
       </c>
-      <c r="O18" s="181" t="s">
+      <c r="O18" s="192" t="s">
         <v>126</v>
       </c>
-      <c r="P18" s="182"/>
-      <c r="Q18" s="183"/>
+      <c r="P18" s="193"/>
+      <c r="Q18" s="194"/>
       <c r="R18" s="51" t="s">
         <v>18</v>
       </c>
@@ -4640,10 +4640,10 @@
     <row r="19" spans="1:18" ht="30" customHeight="1">
       <c r="A19" s="150"/>
       <c r="B19" s="150"/>
-      <c r="D19" s="174" t="s">
+      <c r="D19" s="201" t="s">
         <v>279</v>
       </c>
-      <c r="E19" s="175"/>
+      <c r="E19" s="202"/>
       <c r="F19" s="57" t="s">
         <v>123</v>
       </c>
@@ -4654,10 +4654,10 @@
       <c r="I19" s="153" t="s">
         <v>46</v>
       </c>
-      <c r="J19" s="186" t="s">
+      <c r="J19" s="195" t="s">
         <v>280</v>
       </c>
-      <c r="K19" s="186"/>
+      <c r="K19" s="195"/>
       <c r="L19" s="154" t="s">
         <v>281</v>
       </c>
@@ -4665,11 +4665,11 @@
       <c r="N19" s="143" t="s">
         <v>44</v>
       </c>
-      <c r="O19" s="181" t="s">
+      <c r="O19" s="192" t="s">
         <v>127</v>
       </c>
-      <c r="P19" s="182"/>
-      <c r="Q19" s="183"/>
+      <c r="P19" s="193"/>
+      <c r="Q19" s="194"/>
       <c r="R19" s="51" t="s">
         <v>128</v>
       </c>
@@ -4677,10 +4677,10 @@
     <row r="20" spans="1:18" ht="18.5" customHeight="1">
       <c r="A20" s="150"/>
       <c r="B20" s="150"/>
-      <c r="D20" s="177" t="s">
+      <c r="D20" s="190" t="s">
         <v>282</v>
       </c>
-      <c r="E20" s="178"/>
+      <c r="E20" s="191"/>
       <c r="F20" s="57" t="s">
         <v>119</v>
       </c>
@@ -4691,10 +4691,10 @@
       <c r="I20" s="153" t="s">
         <v>47</v>
       </c>
-      <c r="J20" s="186" t="s">
+      <c r="J20" s="195" t="s">
         <v>283</v>
       </c>
-      <c r="K20" s="186"/>
+      <c r="K20" s="195"/>
       <c r="L20" s="154" t="s">
         <v>284</v>
       </c>
@@ -4702,11 +4702,11 @@
       <c r="N20" s="143" t="s">
         <v>129</v>
       </c>
-      <c r="O20" s="181" t="s">
+      <c r="O20" s="192" t="s">
         <v>130</v>
       </c>
-      <c r="P20" s="182"/>
-      <c r="Q20" s="183"/>
+      <c r="P20" s="193"/>
+      <c r="Q20" s="194"/>
       <c r="R20" s="51" t="s">
         <v>131</v>
       </c>
@@ -4714,10 +4714,10 @@
     <row r="21" spans="1:18" ht="27" customHeight="1" thickBot="1">
       <c r="A21" s="150"/>
       <c r="B21" s="150"/>
-      <c r="D21" s="184" t="s">
+      <c r="D21" s="196" t="s">
         <v>285</v>
       </c>
-      <c r="E21" s="185"/>
+      <c r="E21" s="197"/>
       <c r="F21" s="57" t="s">
         <v>120</v>
       </c>
@@ -4728,10 +4728,10 @@
       <c r="I21" s="153" t="s">
         <v>48</v>
       </c>
-      <c r="J21" s="186" t="s">
+      <c r="J21" s="195" t="s">
         <v>286</v>
       </c>
-      <c r="K21" s="186"/>
+      <c r="K21" s="195"/>
       <c r="L21" s="157" t="s">
         <v>287</v>
       </c>
@@ -4739,11 +4739,11 @@
       <c r="N21" s="144" t="s">
         <v>134</v>
       </c>
-      <c r="O21" s="187" t="s">
+      <c r="O21" s="198" t="s">
         <v>132</v>
       </c>
-      <c r="P21" s="188"/>
-      <c r="Q21" s="189"/>
+      <c r="P21" s="199"/>
+      <c r="Q21" s="200"/>
       <c r="R21" s="52" t="s">
         <v>133</v>
       </c>
@@ -4751,10 +4751,10 @@
     <row r="22" spans="1:18" ht="18.5" customHeight="1" thickBot="1">
       <c r="A22" s="150"/>
       <c r="B22" s="150"/>
-      <c r="D22" s="177" t="s">
+      <c r="D22" s="190" t="s">
         <v>288</v>
       </c>
-      <c r="E22" s="178"/>
+      <c r="E22" s="191"/>
       <c r="F22" s="57" t="s">
         <v>17</v>
       </c>
@@ -4765,10 +4765,10 @@
       <c r="I22" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="J22" s="173" t="s">
+      <c r="J22" s="205" t="s">
         <v>289</v>
       </c>
-      <c r="K22" s="173"/>
+      <c r="K22" s="205"/>
       <c r="L22" s="161" t="s">
         <v>290</v>
       </c>
@@ -4777,28 +4777,28 @@
     <row r="23" spans="1:18" ht="18.5" customHeight="1" thickBot="1">
       <c r="A23" s="150"/>
       <c r="B23" s="150"/>
-      <c r="D23" s="174" t="s">
+      <c r="D23" s="201" t="s">
         <v>291</v>
       </c>
-      <c r="E23" s="175"/>
+      <c r="E23" s="202"/>
       <c r="F23" s="51" t="s">
         <v>121</v>
       </c>
       <c r="G23" s="163"/>
-      <c r="H23" s="176"/>
-      <c r="I23" s="176"/>
-      <c r="J23" s="176"/>
-      <c r="K23" s="176"/>
+      <c r="H23" s="206"/>
+      <c r="I23" s="206"/>
+      <c r="J23" s="206"/>
+      <c r="K23" s="206"/>
       <c r="L23" s="72"/>
       <c r="M23" s="72"/>
     </row>
     <row r="24" spans="1:18" ht="18.5" customHeight="1" thickBot="1">
       <c r="A24" s="150"/>
       <c r="B24" s="150"/>
-      <c r="D24" s="177" t="s">
+      <c r="D24" s="190" t="s">
         <v>292</v>
       </c>
-      <c r="E24" s="178"/>
+      <c r="E24" s="191"/>
       <c r="F24" s="57" t="s">
         <v>122</v>
       </c>
@@ -4818,10 +4818,10 @@
     <row r="25" spans="1:18" ht="18.5" customHeight="1">
       <c r="A25" s="150"/>
       <c r="B25" s="150"/>
-      <c r="D25" s="179" t="s">
+      <c r="D25" s="207" t="s">
         <v>165</v>
       </c>
-      <c r="E25" s="180"/>
+      <c r="E25" s="208"/>
       <c r="F25" s="168" t="s">
         <v>206</v>
       </c>
@@ -4830,10 +4830,10 @@
     <row r="26" spans="1:18" ht="17" thickBot="1">
       <c r="A26" s="150"/>
       <c r="B26" s="150"/>
-      <c r="D26" s="171" t="s">
+      <c r="D26" s="203" t="s">
         <v>294</v>
       </c>
-      <c r="E26" s="172"/>
+      <c r="E26" s="204"/>
       <c r="F26" s="169" t="s">
         <v>295</v>
       </c>
@@ -4877,6 +4877,31 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
     <mergeCell ref="H15:L15"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:P1"/>
@@ -4887,31 +4912,6 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="N15:R15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D22:E22"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5641,308 +5641,308 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" ht="7" customHeight="1" thickBot="1">
-      <c r="Z1" s="337"/>
-      <c r="AA1" s="338"/>
-      <c r="AB1" s="338"/>
-      <c r="AC1" s="338"/>
-      <c r="AD1" s="338"/>
+      <c r="Z1" s="217"/>
+      <c r="AA1" s="218"/>
+      <c r="AB1" s="218"/>
+      <c r="AC1" s="218"/>
+      <c r="AD1" s="218"/>
     </row>
     <row r="2" spans="2:30" ht="16" customHeight="1">
-      <c r="B2" s="237" t="s">
+      <c r="B2" s="329" t="s">
         <v>259</v>
       </c>
-      <c r="C2" s="238"/>
-      <c r="D2" s="238"/>
-      <c r="E2" s="238"/>
-      <c r="F2" s="238"/>
-      <c r="G2" s="238"/>
-      <c r="H2" s="239" t="s">
+      <c r="C2" s="330"/>
+      <c r="D2" s="330"/>
+      <c r="E2" s="330"/>
+      <c r="F2" s="330"/>
+      <c r="G2" s="330"/>
+      <c r="H2" s="331" t="s">
         <v>261</v>
       </c>
-      <c r="I2" s="240"/>
-      <c r="J2" s="216" t="s">
+      <c r="I2" s="332"/>
+      <c r="J2" s="308" t="s">
         <v>228</v>
       </c>
-      <c r="K2" s="217"/>
-      <c r="L2" s="217"/>
-      <c r="M2" s="217"/>
-      <c r="N2" s="217"/>
-      <c r="O2" s="217"/>
-      <c r="P2" s="217"/>
-      <c r="Q2" s="217"/>
-      <c r="R2" s="217"/>
-      <c r="S2" s="217"/>
-      <c r="T2" s="217"/>
-      <c r="U2" s="217"/>
-      <c r="V2" s="218"/>
-      <c r="W2" s="264" t="s">
+      <c r="K2" s="309"/>
+      <c r="L2" s="309"/>
+      <c r="M2" s="309"/>
+      <c r="N2" s="309"/>
+      <c r="O2" s="309"/>
+      <c r="P2" s="309"/>
+      <c r="Q2" s="309"/>
+      <c r="R2" s="309"/>
+      <c r="S2" s="309"/>
+      <c r="T2" s="309"/>
+      <c r="U2" s="309"/>
+      <c r="V2" s="310"/>
+      <c r="W2" s="276" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="265"/>
-      <c r="Y2" s="265"/>
-      <c r="Z2" s="265"/>
-      <c r="AA2" s="265"/>
-      <c r="AB2" s="265"/>
-      <c r="AC2" s="265"/>
-      <c r="AD2" s="266"/>
+      <c r="X2" s="277"/>
+      <c r="Y2" s="277"/>
+      <c r="Z2" s="277"/>
+      <c r="AA2" s="277"/>
+      <c r="AB2" s="277"/>
+      <c r="AC2" s="277"/>
+      <c r="AD2" s="278"/>
     </row>
     <row r="3" spans="2:30" ht="14.25" customHeight="1">
-      <c r="B3" s="213"/>
-      <c r="C3" s="214"/>
-      <c r="D3" s="214"/>
-      <c r="E3" s="214"/>
-      <c r="F3" s="214"/>
-      <c r="G3" s="214"/>
-      <c r="H3" s="215"/>
-      <c r="I3" s="215"/>
-      <c r="J3" s="227"/>
-      <c r="K3" s="228"/>
-      <c r="L3" s="228"/>
-      <c r="M3" s="228"/>
-      <c r="N3" s="228"/>
-      <c r="O3" s="228"/>
-      <c r="P3" s="228"/>
-      <c r="Q3" s="228"/>
-      <c r="R3" s="228"/>
-      <c r="S3" s="228"/>
-      <c r="T3" s="229"/>
-      <c r="U3" s="211" t="s">
+      <c r="B3" s="305"/>
+      <c r="C3" s="306"/>
+      <c r="D3" s="306"/>
+      <c r="E3" s="306"/>
+      <c r="F3" s="306"/>
+      <c r="G3" s="306"/>
+      <c r="H3" s="307"/>
+      <c r="I3" s="307"/>
+      <c r="J3" s="319"/>
+      <c r="K3" s="320"/>
+      <c r="L3" s="320"/>
+      <c r="M3" s="320"/>
+      <c r="N3" s="320"/>
+      <c r="O3" s="320"/>
+      <c r="P3" s="320"/>
+      <c r="Q3" s="320"/>
+      <c r="R3" s="320"/>
+      <c r="S3" s="320"/>
+      <c r="T3" s="321"/>
+      <c r="U3" s="303" t="s">
         <v>247</v>
       </c>
-      <c r="V3" s="211"/>
-      <c r="W3" s="271"/>
-      <c r="X3" s="271"/>
-      <c r="Y3" s="271"/>
-      <c r="Z3" s="271"/>
-      <c r="AA3" s="271"/>
-      <c r="AB3" s="271"/>
-      <c r="AC3" s="271"/>
-      <c r="AD3" s="272"/>
+      <c r="V3" s="303"/>
+      <c r="W3" s="279"/>
+      <c r="X3" s="279"/>
+      <c r="Y3" s="279"/>
+      <c r="Z3" s="279"/>
+      <c r="AA3" s="279"/>
+      <c r="AB3" s="279"/>
+      <c r="AC3" s="279"/>
+      <c r="AD3" s="280"/>
     </row>
     <row r="4" spans="2:30" ht="14.25" customHeight="1">
-      <c r="B4" s="213"/>
-      <c r="C4" s="214"/>
-      <c r="D4" s="214"/>
-      <c r="E4" s="214"/>
-      <c r="F4" s="214"/>
-      <c r="G4" s="214"/>
-      <c r="H4" s="215"/>
-      <c r="I4" s="215"/>
-      <c r="J4" s="230"/>
-      <c r="K4" s="231"/>
-      <c r="L4" s="231"/>
-      <c r="M4" s="231"/>
-      <c r="N4" s="231"/>
-      <c r="O4" s="231"/>
-      <c r="P4" s="231"/>
-      <c r="Q4" s="231"/>
-      <c r="R4" s="231"/>
-      <c r="S4" s="231"/>
-      <c r="T4" s="232"/>
-      <c r="U4" s="211"/>
-      <c r="V4" s="211"/>
-      <c r="W4" s="271"/>
-      <c r="X4" s="271"/>
-      <c r="Y4" s="271"/>
-      <c r="Z4" s="271"/>
-      <c r="AA4" s="271"/>
-      <c r="AB4" s="271"/>
-      <c r="AC4" s="271"/>
-      <c r="AD4" s="272"/>
+      <c r="B4" s="305"/>
+      <c r="C4" s="306"/>
+      <c r="D4" s="306"/>
+      <c r="E4" s="306"/>
+      <c r="F4" s="306"/>
+      <c r="G4" s="306"/>
+      <c r="H4" s="307"/>
+      <c r="I4" s="307"/>
+      <c r="J4" s="322"/>
+      <c r="K4" s="323"/>
+      <c r="L4" s="323"/>
+      <c r="M4" s="323"/>
+      <c r="N4" s="323"/>
+      <c r="O4" s="323"/>
+      <c r="P4" s="323"/>
+      <c r="Q4" s="323"/>
+      <c r="R4" s="323"/>
+      <c r="S4" s="323"/>
+      <c r="T4" s="324"/>
+      <c r="U4" s="303"/>
+      <c r="V4" s="303"/>
+      <c r="W4" s="279"/>
+      <c r="X4" s="279"/>
+      <c r="Y4" s="279"/>
+      <c r="Z4" s="279"/>
+      <c r="AA4" s="279"/>
+      <c r="AB4" s="279"/>
+      <c r="AC4" s="279"/>
+      <c r="AD4" s="280"/>
     </row>
     <row r="5" spans="2:30" ht="14.25" customHeight="1">
-      <c r="B5" s="242" t="s">
+      <c r="B5" s="334" t="s">
         <v>239</v>
       </c>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
-      <c r="E5" s="243"/>
-      <c r="F5" s="243"/>
-      <c r="G5" s="243"/>
-      <c r="H5" s="246" t="s">
+      <c r="C5" s="335"/>
+      <c r="D5" s="335"/>
+      <c r="E5" s="335"/>
+      <c r="F5" s="335"/>
+      <c r="G5" s="335"/>
+      <c r="H5" s="338" t="s">
         <v>260</v>
       </c>
-      <c r="I5" s="246"/>
-      <c r="J5" s="230"/>
-      <c r="K5" s="231"/>
-      <c r="L5" s="231"/>
-      <c r="M5" s="231"/>
-      <c r="N5" s="231"/>
-      <c r="O5" s="231"/>
-      <c r="P5" s="231"/>
-      <c r="Q5" s="231"/>
-      <c r="R5" s="231"/>
-      <c r="S5" s="231"/>
-      <c r="T5" s="232"/>
+      <c r="I5" s="338"/>
+      <c r="J5" s="322"/>
+      <c r="K5" s="323"/>
+      <c r="L5" s="323"/>
+      <c r="M5" s="323"/>
+      <c r="N5" s="323"/>
+      <c r="O5" s="323"/>
+      <c r="P5" s="323"/>
+      <c r="Q5" s="323"/>
+      <c r="R5" s="323"/>
+      <c r="S5" s="323"/>
+      <c r="T5" s="324"/>
       <c r="U5" s="123" t="s">
         <v>245</v>
       </c>
       <c r="V5" s="123" t="s">
         <v>246</v>
       </c>
-      <c r="W5" s="271"/>
-      <c r="X5" s="271"/>
-      <c r="Y5" s="271"/>
-      <c r="Z5" s="271"/>
-      <c r="AA5" s="271"/>
-      <c r="AB5" s="271"/>
-      <c r="AC5" s="271"/>
-      <c r="AD5" s="272"/>
+      <c r="W5" s="279"/>
+      <c r="X5" s="279"/>
+      <c r="Y5" s="279"/>
+      <c r="Z5" s="279"/>
+      <c r="AA5" s="279"/>
+      <c r="AB5" s="279"/>
+      <c r="AC5" s="279"/>
+      <c r="AD5" s="280"/>
     </row>
     <row r="6" spans="2:30" ht="25" customHeight="1">
-      <c r="B6" s="244"/>
-      <c r="C6" s="245"/>
-      <c r="D6" s="245"/>
-      <c r="E6" s="245"/>
-      <c r="F6" s="245"/>
-      <c r="G6" s="245"/>
-      <c r="H6" s="214"/>
-      <c r="I6" s="214"/>
-      <c r="J6" s="233"/>
-      <c r="K6" s="234"/>
-      <c r="L6" s="234"/>
-      <c r="M6" s="234"/>
-      <c r="N6" s="234"/>
-      <c r="O6" s="234"/>
-      <c r="P6" s="234"/>
-      <c r="Q6" s="234"/>
-      <c r="R6" s="234"/>
-      <c r="S6" s="234"/>
-      <c r="T6" s="235"/>
+      <c r="B6" s="336"/>
+      <c r="C6" s="337"/>
+      <c r="D6" s="337"/>
+      <c r="E6" s="337"/>
+      <c r="F6" s="337"/>
+      <c r="G6" s="337"/>
+      <c r="H6" s="306"/>
+      <c r="I6" s="306"/>
+      <c r="J6" s="325"/>
+      <c r="K6" s="326"/>
+      <c r="L6" s="326"/>
+      <c r="M6" s="326"/>
+      <c r="N6" s="326"/>
+      <c r="O6" s="326"/>
+      <c r="P6" s="326"/>
+      <c r="Q6" s="326"/>
+      <c r="R6" s="326"/>
+      <c r="S6" s="326"/>
+      <c r="T6" s="327"/>
       <c r="U6" s="122"/>
       <c r="V6" s="122"/>
-      <c r="W6" s="271"/>
-      <c r="X6" s="271"/>
-      <c r="Y6" s="271"/>
-      <c r="Z6" s="271"/>
-      <c r="AA6" s="271"/>
-      <c r="AB6" s="271"/>
-      <c r="AC6" s="271"/>
-      <c r="AD6" s="272"/>
+      <c r="W6" s="279"/>
+      <c r="X6" s="279"/>
+      <c r="Y6" s="279"/>
+      <c r="Z6" s="279"/>
+      <c r="AA6" s="279"/>
+      <c r="AB6" s="279"/>
+      <c r="AC6" s="279"/>
+      <c r="AD6" s="280"/>
     </row>
     <row r="7" spans="2:30" ht="29" customHeight="1">
       <c r="B7" s="84" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="83"/>
-      <c r="D7" s="221" t="s">
+      <c r="D7" s="313" t="s">
         <v>258</v>
       </c>
-      <c r="E7" s="222"/>
-      <c r="F7" s="211" t="s">
+      <c r="E7" s="314"/>
+      <c r="F7" s="303" t="s">
         <v>257</v>
       </c>
-      <c r="G7" s="211"/>
-      <c r="H7" s="241" t="s">
+      <c r="G7" s="303"/>
+      <c r="H7" s="333" t="s">
         <v>176</v>
       </c>
-      <c r="I7" s="224"/>
-      <c r="J7" s="247" t="s">
+      <c r="I7" s="316"/>
+      <c r="J7" s="295" t="s">
         <v>297</v>
       </c>
-      <c r="K7" s="248"/>
-      <c r="L7" s="248"/>
-      <c r="M7" s="249"/>
-      <c r="N7" s="247" t="s">
+      <c r="K7" s="296"/>
+      <c r="L7" s="296"/>
+      <c r="M7" s="297"/>
+      <c r="N7" s="295" t="s">
         <v>298</v>
       </c>
-      <c r="O7" s="248"/>
-      <c r="P7" s="248"/>
-      <c r="Q7" s="248"/>
-      <c r="R7" s="249"/>
-      <c r="S7" s="275" t="s">
+      <c r="O7" s="296"/>
+      <c r="P7" s="296"/>
+      <c r="Q7" s="296"/>
+      <c r="R7" s="297"/>
+      <c r="S7" s="283" t="s">
         <v>296</v>
       </c>
-      <c r="T7" s="276"/>
-      <c r="U7" s="223" t="s">
+      <c r="T7" s="284"/>
+      <c r="U7" s="315" t="s">
         <v>248</v>
       </c>
-      <c r="V7" s="224"/>
-      <c r="W7" s="271"/>
-      <c r="X7" s="271"/>
-      <c r="Y7" s="271"/>
-      <c r="Z7" s="271"/>
-      <c r="AA7" s="271"/>
-      <c r="AB7" s="271"/>
-      <c r="AC7" s="271"/>
-      <c r="AD7" s="272"/>
+      <c r="V7" s="316"/>
+      <c r="W7" s="279"/>
+      <c r="X7" s="279"/>
+      <c r="Y7" s="279"/>
+      <c r="Z7" s="279"/>
+      <c r="AA7" s="279"/>
+      <c r="AB7" s="279"/>
+      <c r="AC7" s="279"/>
+      <c r="AD7" s="280"/>
     </row>
     <row r="8" spans="2:30" ht="25" customHeight="1" thickBot="1">
-      <c r="B8" s="219"/>
-      <c r="C8" s="220"/>
-      <c r="D8" s="220"/>
-      <c r="E8" s="220"/>
-      <c r="F8" s="212"/>
-      <c r="G8" s="212"/>
-      <c r="H8" s="187"/>
-      <c r="I8" s="236"/>
-      <c r="J8" s="328"/>
-      <c r="K8" s="329"/>
-      <c r="L8" s="329"/>
-      <c r="M8" s="330"/>
-      <c r="N8" s="269"/>
-      <c r="O8" s="270"/>
-      <c r="P8" s="270"/>
-      <c r="Q8" s="270"/>
-      <c r="R8" s="270"/>
-      <c r="S8" s="269"/>
-      <c r="T8" s="270"/>
-      <c r="U8" s="225"/>
-      <c r="V8" s="226"/>
-      <c r="W8" s="273"/>
-      <c r="X8" s="273"/>
-      <c r="Y8" s="273"/>
-      <c r="Z8" s="273"/>
-      <c r="AA8" s="273"/>
-      <c r="AB8" s="273"/>
-      <c r="AC8" s="273"/>
-      <c r="AD8" s="274"/>
+      <c r="B8" s="311"/>
+      <c r="C8" s="312"/>
+      <c r="D8" s="312"/>
+      <c r="E8" s="312"/>
+      <c r="F8" s="304"/>
+      <c r="G8" s="304"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="328"/>
+      <c r="J8" s="233"/>
+      <c r="K8" s="234"/>
+      <c r="L8" s="234"/>
+      <c r="M8" s="235"/>
+      <c r="N8" s="237"/>
+      <c r="O8" s="238"/>
+      <c r="P8" s="238"/>
+      <c r="Q8" s="238"/>
+      <c r="R8" s="238"/>
+      <c r="S8" s="237"/>
+      <c r="T8" s="238"/>
+      <c r="U8" s="317"/>
+      <c r="V8" s="318"/>
+      <c r="W8" s="281"/>
+      <c r="X8" s="281"/>
+      <c r="Y8" s="281"/>
+      <c r="Z8" s="281"/>
+      <c r="AA8" s="281"/>
+      <c r="AB8" s="281"/>
+      <c r="AC8" s="281"/>
+      <c r="AD8" s="282"/>
     </row>
     <row r="9" spans="2:30" s="5" customFormat="1" ht="25" customHeight="1">
-      <c r="B9" s="322" t="s">
+      <c r="B9" s="220" t="s">
         <v>229</v>
       </c>
-      <c r="C9" s="323"/>
-      <c r="D9" s="323"/>
-      <c r="E9" s="323"/>
-      <c r="F9" s="323"/>
-      <c r="G9" s="324"/>
-      <c r="H9" s="335" t="s">
+      <c r="C9" s="221"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="221"/>
+      <c r="F9" s="221"/>
+      <c r="G9" s="222"/>
+      <c r="H9" s="243" t="s">
         <v>175</v>
       </c>
-      <c r="I9" s="324"/>
-      <c r="J9" s="334" t="s">
+      <c r="I9" s="222"/>
+      <c r="J9" s="241" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="285"/>
-      <c r="L9" s="332"/>
-      <c r="M9" s="283" t="s">
+      <c r="K9" s="242"/>
+      <c r="L9" s="239"/>
+      <c r="M9" s="289" t="s">
         <v>7</v>
       </c>
-      <c r="N9" s="284"/>
-      <c r="O9" s="284"/>
-      <c r="P9" s="284"/>
-      <c r="Q9" s="284"/>
-      <c r="R9" s="284"/>
-      <c r="S9" s="284"/>
-      <c r="T9" s="284"/>
-      <c r="U9" s="284"/>
-      <c r="V9" s="284"/>
-      <c r="W9" s="284"/>
-      <c r="X9" s="284"/>
-      <c r="Y9" s="284"/>
-      <c r="Z9" s="284"/>
-      <c r="AA9" s="284"/>
-      <c r="AB9" s="284"/>
-      <c r="AC9" s="284"/>
-      <c r="AD9" s="285"/>
+      <c r="N9" s="290"/>
+      <c r="O9" s="290"/>
+      <c r="P9" s="290"/>
+      <c r="Q9" s="290"/>
+      <c r="R9" s="290"/>
+      <c r="S9" s="290"/>
+      <c r="T9" s="290"/>
+      <c r="U9" s="290"/>
+      <c r="V9" s="290"/>
+      <c r="W9" s="290"/>
+      <c r="X9" s="290"/>
+      <c r="Y9" s="290"/>
+      <c r="Z9" s="290"/>
+      <c r="AA9" s="290"/>
+      <c r="AB9" s="290"/>
+      <c r="AC9" s="290"/>
+      <c r="AD9" s="242"/>
     </row>
     <row r="10" spans="2:30" ht="37.25" customHeight="1">
-      <c r="B10" s="325" t="s">
+      <c r="B10" s="223" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="326"/>
-      <c r="D10" s="282"/>
+      <c r="C10" s="224"/>
+      <c r="D10" s="225"/>
       <c r="E10" s="138" t="s">
         <v>9</v>
       </c>
@@ -5964,37 +5964,37 @@
       <c r="K10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="L10" s="332"/>
-      <c r="M10" s="331" t="s">
+      <c r="L10" s="239"/>
+      <c r="M10" s="236" t="s">
         <v>61</v>
       </c>
-      <c r="N10" s="327"/>
-      <c r="O10" s="327"/>
-      <c r="P10" s="294" t="s">
+      <c r="N10" s="227"/>
+      <c r="O10" s="227"/>
+      <c r="P10" s="271" t="s">
         <v>182</v>
       </c>
-      <c r="Q10" s="295"/>
-      <c r="R10" s="295"/>
-      <c r="S10" s="295"/>
-      <c r="T10" s="296"/>
-      <c r="U10" s="280" t="s">
+      <c r="Q10" s="272"/>
+      <c r="R10" s="272"/>
+      <c r="S10" s="272"/>
+      <c r="T10" s="273"/>
+      <c r="U10" s="226" t="s">
         <v>181</v>
       </c>
-      <c r="V10" s="281" t="s">
+      <c r="V10" s="288" t="s">
         <v>36</v>
       </c>
-      <c r="W10" s="279" t="s">
+      <c r="W10" s="287" t="s">
         <v>77</v>
       </c>
-      <c r="X10" s="286" t="s">
+      <c r="X10" s="291" t="s">
         <v>12</v>
       </c>
-      <c r="Y10" s="286"/>
-      <c r="Z10" s="286"/>
-      <c r="AA10" s="286"/>
-      <c r="AB10" s="286"/>
-      <c r="AC10" s="286"/>
-      <c r="AD10" s="287"/>
+      <c r="Y10" s="291"/>
+      <c r="Z10" s="291"/>
+      <c r="AA10" s="291"/>
+      <c r="AB10" s="291"/>
+      <c r="AC10" s="291"/>
+      <c r="AD10" s="292"/>
     </row>
     <row r="11" spans="2:30" ht="29" customHeight="1">
       <c r="B11" s="129" t="s">
@@ -6027,7 +6027,7 @@
       <c r="K11" s="137" t="s">
         <v>256</v>
       </c>
-      <c r="L11" s="332"/>
+      <c r="L11" s="239"/>
       <c r="M11" s="127" t="s">
         <v>13</v>
       </c>
@@ -6052,16 +6052,16 @@
       <c r="T11" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="U11" s="327"/>
-      <c r="V11" s="282"/>
-      <c r="W11" s="280"/>
-      <c r="X11" s="288"/>
-      <c r="Y11" s="288"/>
-      <c r="Z11" s="288"/>
-      <c r="AA11" s="288"/>
-      <c r="AB11" s="288"/>
-      <c r="AC11" s="288"/>
-      <c r="AD11" s="289"/>
+      <c r="U11" s="227"/>
+      <c r="V11" s="225"/>
+      <c r="W11" s="226"/>
+      <c r="X11" s="293"/>
+      <c r="Y11" s="293"/>
+      <c r="Z11" s="293"/>
+      <c r="AA11" s="293"/>
+      <c r="AB11" s="293"/>
+      <c r="AC11" s="293"/>
+      <c r="AD11" s="294"/>
     </row>
     <row r="12" spans="2:30" ht="20" customHeight="1">
       <c r="B12" s="85"/>
@@ -6076,27 +6076,27 @@
       <c r="I12" s="20"/>
       <c r="J12" s="103"/>
       <c r="K12" s="19"/>
-      <c r="L12" s="332"/>
-      <c r="M12" s="292"/>
-      <c r="N12" s="290" t="s">
+      <c r="L12" s="239"/>
+      <c r="M12" s="231"/>
+      <c r="N12" s="229" t="s">
         <v>16</v>
       </c>
-      <c r="O12" s="263"/>
-      <c r="P12" s="268"/>
-      <c r="Q12" s="268"/>
-      <c r="R12" s="268"/>
-      <c r="S12" s="268"/>
-      <c r="T12" s="268"/>
-      <c r="U12" s="267"/>
-      <c r="V12" s="299"/>
-      <c r="W12" s="277"/>
-      <c r="X12" s="297"/>
-      <c r="Y12" s="250"/>
-      <c r="Z12" s="250"/>
-      <c r="AA12" s="250"/>
-      <c r="AB12" s="250"/>
-      <c r="AC12" s="250"/>
-      <c r="AD12" s="251"/>
+      <c r="O12" s="254"/>
+      <c r="P12" s="219"/>
+      <c r="Q12" s="219"/>
+      <c r="R12" s="219"/>
+      <c r="S12" s="219"/>
+      <c r="T12" s="219"/>
+      <c r="U12" s="228"/>
+      <c r="V12" s="257"/>
+      <c r="W12" s="285"/>
+      <c r="X12" s="274"/>
+      <c r="Y12" s="265"/>
+      <c r="Z12" s="265"/>
+      <c r="AA12" s="265"/>
+      <c r="AB12" s="265"/>
+      <c r="AC12" s="265"/>
+      <c r="AD12" s="266"/>
     </row>
     <row r="13" spans="2:30" ht="20" customHeight="1">
       <c r="B13" s="85"/>
@@ -6111,25 +6111,25 @@
       <c r="I13" s="20"/>
       <c r="J13" s="104"/>
       <c r="K13" s="18"/>
-      <c r="L13" s="332"/>
-      <c r="M13" s="293"/>
-      <c r="N13" s="291"/>
-      <c r="O13" s="263"/>
-      <c r="P13" s="261"/>
-      <c r="Q13" s="261"/>
-      <c r="R13" s="261"/>
-      <c r="S13" s="261"/>
-      <c r="T13" s="261"/>
-      <c r="U13" s="268"/>
-      <c r="V13" s="300"/>
-      <c r="W13" s="278"/>
-      <c r="X13" s="298"/>
-      <c r="Y13" s="254"/>
-      <c r="Z13" s="254"/>
-      <c r="AA13" s="254"/>
-      <c r="AB13" s="254"/>
-      <c r="AC13" s="254"/>
-      <c r="AD13" s="255"/>
+      <c r="L13" s="239"/>
+      <c r="M13" s="232"/>
+      <c r="N13" s="230"/>
+      <c r="O13" s="254"/>
+      <c r="P13" s="211"/>
+      <c r="Q13" s="211"/>
+      <c r="R13" s="211"/>
+      <c r="S13" s="211"/>
+      <c r="T13" s="211"/>
+      <c r="U13" s="219"/>
+      <c r="V13" s="258"/>
+      <c r="W13" s="286"/>
+      <c r="X13" s="275"/>
+      <c r="Y13" s="267"/>
+      <c r="Z13" s="267"/>
+      <c r="AA13" s="267"/>
+      <c r="AB13" s="267"/>
+      <c r="AC13" s="267"/>
+      <c r="AD13" s="268"/>
     </row>
     <row r="14" spans="2:30" ht="20" customHeight="1">
       <c r="B14" s="85"/>
@@ -6144,27 +6144,27 @@
       <c r="I14" s="20"/>
       <c r="J14" s="104"/>
       <c r="K14" s="101"/>
-      <c r="L14" s="332"/>
-      <c r="M14" s="292"/>
-      <c r="N14" s="290" t="s">
+      <c r="L14" s="239"/>
+      <c r="M14" s="231"/>
+      <c r="N14" s="229" t="s">
         <v>16</v>
       </c>
-      <c r="O14" s="263"/>
-      <c r="P14" s="261"/>
-      <c r="Q14" s="261"/>
-      <c r="R14" s="261"/>
-      <c r="S14" s="261"/>
-      <c r="T14" s="261"/>
-      <c r="U14" s="267"/>
-      <c r="V14" s="299"/>
-      <c r="W14" s="259"/>
-      <c r="X14" s="250"/>
-      <c r="Y14" s="250"/>
-      <c r="Z14" s="250"/>
-      <c r="AA14" s="250"/>
-      <c r="AB14" s="250"/>
-      <c r="AC14" s="250"/>
-      <c r="AD14" s="251"/>
+      <c r="O14" s="254"/>
+      <c r="P14" s="211"/>
+      <c r="Q14" s="211"/>
+      <c r="R14" s="211"/>
+      <c r="S14" s="211"/>
+      <c r="T14" s="211"/>
+      <c r="U14" s="228"/>
+      <c r="V14" s="257"/>
+      <c r="W14" s="269"/>
+      <c r="X14" s="265"/>
+      <c r="Y14" s="265"/>
+      <c r="Z14" s="265"/>
+      <c r="AA14" s="265"/>
+      <c r="AB14" s="265"/>
+      <c r="AC14" s="265"/>
+      <c r="AD14" s="266"/>
     </row>
     <row r="15" spans="2:30" ht="20" customHeight="1">
       <c r="B15" s="85"/>
@@ -6179,25 +6179,25 @@
       <c r="I15" s="20"/>
       <c r="J15" s="105"/>
       <c r="K15" s="19"/>
-      <c r="L15" s="332"/>
-      <c r="M15" s="293"/>
-      <c r="N15" s="291"/>
-      <c r="O15" s="263"/>
-      <c r="P15" s="261"/>
-      <c r="Q15" s="261"/>
-      <c r="R15" s="261"/>
-      <c r="S15" s="261"/>
-      <c r="T15" s="261"/>
-      <c r="U15" s="268"/>
-      <c r="V15" s="300"/>
-      <c r="W15" s="260"/>
-      <c r="X15" s="254"/>
-      <c r="Y15" s="254"/>
-      <c r="Z15" s="254"/>
-      <c r="AA15" s="254"/>
-      <c r="AB15" s="254"/>
-      <c r="AC15" s="254"/>
-      <c r="AD15" s="255"/>
+      <c r="L15" s="239"/>
+      <c r="M15" s="232"/>
+      <c r="N15" s="230"/>
+      <c r="O15" s="254"/>
+      <c r="P15" s="211"/>
+      <c r="Q15" s="211"/>
+      <c r="R15" s="211"/>
+      <c r="S15" s="211"/>
+      <c r="T15" s="211"/>
+      <c r="U15" s="219"/>
+      <c r="V15" s="258"/>
+      <c r="W15" s="270"/>
+      <c r="X15" s="267"/>
+      <c r="Y15" s="267"/>
+      <c r="Z15" s="267"/>
+      <c r="AA15" s="267"/>
+      <c r="AB15" s="267"/>
+      <c r="AC15" s="267"/>
+      <c r="AD15" s="268"/>
     </row>
     <row r="16" spans="2:30" ht="20" customHeight="1">
       <c r="B16" s="85"/>
@@ -6212,27 +6212,27 @@
       <c r="I16" s="20"/>
       <c r="J16" s="103"/>
       <c r="K16" s="19"/>
-      <c r="L16" s="332"/>
-      <c r="M16" s="292"/>
-      <c r="N16" s="290" t="s">
+      <c r="L16" s="239"/>
+      <c r="M16" s="231"/>
+      <c r="N16" s="229" t="s">
         <v>16</v>
       </c>
-      <c r="O16" s="263"/>
-      <c r="P16" s="261"/>
-      <c r="Q16" s="262"/>
-      <c r="R16" s="261"/>
-      <c r="S16" s="262"/>
-      <c r="T16" s="303"/>
-      <c r="U16" s="267"/>
-      <c r="V16" s="299"/>
-      <c r="W16" s="259"/>
-      <c r="X16" s="250"/>
-      <c r="Y16" s="250"/>
-      <c r="Z16" s="250"/>
-      <c r="AA16" s="250"/>
-      <c r="AB16" s="250"/>
-      <c r="AC16" s="250"/>
-      <c r="AD16" s="251"/>
+      <c r="O16" s="254"/>
+      <c r="P16" s="211"/>
+      <c r="Q16" s="212"/>
+      <c r="R16" s="211"/>
+      <c r="S16" s="212"/>
+      <c r="T16" s="245"/>
+      <c r="U16" s="228"/>
+      <c r="V16" s="257"/>
+      <c r="W16" s="269"/>
+      <c r="X16" s="265"/>
+      <c r="Y16" s="265"/>
+      <c r="Z16" s="265"/>
+      <c r="AA16" s="265"/>
+      <c r="AB16" s="265"/>
+      <c r="AC16" s="265"/>
+      <c r="AD16" s="266"/>
     </row>
     <row r="17" spans="2:30" ht="20" customHeight="1">
       <c r="B17" s="85"/>
@@ -6247,25 +6247,25 @@
       <c r="I17" s="20"/>
       <c r="J17" s="104"/>
       <c r="K17" s="102"/>
-      <c r="L17" s="332"/>
-      <c r="M17" s="293"/>
-      <c r="N17" s="291"/>
-      <c r="O17" s="263"/>
-      <c r="P17" s="261"/>
-      <c r="Q17" s="262"/>
-      <c r="R17" s="261"/>
-      <c r="S17" s="262"/>
-      <c r="T17" s="301"/>
-      <c r="U17" s="268"/>
-      <c r="V17" s="300"/>
-      <c r="W17" s="260"/>
-      <c r="X17" s="254"/>
-      <c r="Y17" s="254"/>
-      <c r="Z17" s="254"/>
-      <c r="AA17" s="254"/>
-      <c r="AB17" s="254"/>
-      <c r="AC17" s="254"/>
-      <c r="AD17" s="255"/>
+      <c r="L17" s="239"/>
+      <c r="M17" s="232"/>
+      <c r="N17" s="230"/>
+      <c r="O17" s="254"/>
+      <c r="P17" s="211"/>
+      <c r="Q17" s="212"/>
+      <c r="R17" s="211"/>
+      <c r="S17" s="212"/>
+      <c r="T17" s="259"/>
+      <c r="U17" s="219"/>
+      <c r="V17" s="258"/>
+      <c r="W17" s="270"/>
+      <c r="X17" s="267"/>
+      <c r="Y17" s="267"/>
+      <c r="Z17" s="267"/>
+      <c r="AA17" s="267"/>
+      <c r="AB17" s="267"/>
+      <c r="AC17" s="267"/>
+      <c r="AD17" s="268"/>
     </row>
     <row r="18" spans="2:30" ht="20" customHeight="1">
       <c r="B18" s="85"/>
@@ -6280,27 +6280,27 @@
       <c r="I18" s="20"/>
       <c r="J18" s="103"/>
       <c r="K18" s="19"/>
-      <c r="L18" s="332"/>
-      <c r="M18" s="292"/>
-      <c r="N18" s="290" t="s">
+      <c r="L18" s="239"/>
+      <c r="M18" s="231"/>
+      <c r="N18" s="229" t="s">
         <v>16</v>
       </c>
-      <c r="O18" s="263"/>
-      <c r="P18" s="261"/>
-      <c r="Q18" s="262"/>
-      <c r="R18" s="261"/>
-      <c r="S18" s="262"/>
-      <c r="T18" s="303"/>
-      <c r="U18" s="267"/>
-      <c r="V18" s="299"/>
-      <c r="W18" s="259"/>
-      <c r="X18" s="250"/>
-      <c r="Y18" s="250"/>
-      <c r="Z18" s="250"/>
-      <c r="AA18" s="250"/>
-      <c r="AB18" s="250"/>
-      <c r="AC18" s="250"/>
-      <c r="AD18" s="251"/>
+      <c r="O18" s="254"/>
+      <c r="P18" s="211"/>
+      <c r="Q18" s="212"/>
+      <c r="R18" s="211"/>
+      <c r="S18" s="212"/>
+      <c r="T18" s="245"/>
+      <c r="U18" s="228"/>
+      <c r="V18" s="257"/>
+      <c r="W18" s="269"/>
+      <c r="X18" s="265"/>
+      <c r="Y18" s="265"/>
+      <c r="Z18" s="265"/>
+      <c r="AA18" s="265"/>
+      <c r="AB18" s="265"/>
+      <c r="AC18" s="265"/>
+      <c r="AD18" s="266"/>
     </row>
     <row r="19" spans="2:30" ht="20" customHeight="1">
       <c r="B19" s="85"/>
@@ -6315,25 +6315,25 @@
       <c r="I19" s="20"/>
       <c r="J19" s="104"/>
       <c r="K19" s="102"/>
-      <c r="L19" s="332"/>
-      <c r="M19" s="293"/>
-      <c r="N19" s="291"/>
-      <c r="O19" s="263"/>
-      <c r="P19" s="261"/>
-      <c r="Q19" s="262"/>
-      <c r="R19" s="261"/>
-      <c r="S19" s="262"/>
-      <c r="T19" s="302"/>
-      <c r="U19" s="268"/>
-      <c r="V19" s="300"/>
-      <c r="W19" s="260"/>
-      <c r="X19" s="254"/>
-      <c r="Y19" s="254"/>
-      <c r="Z19" s="254"/>
-      <c r="AA19" s="254"/>
-      <c r="AB19" s="254"/>
-      <c r="AC19" s="254"/>
-      <c r="AD19" s="255"/>
+      <c r="L19" s="239"/>
+      <c r="M19" s="232"/>
+      <c r="N19" s="230"/>
+      <c r="O19" s="254"/>
+      <c r="P19" s="211"/>
+      <c r="Q19" s="212"/>
+      <c r="R19" s="211"/>
+      <c r="S19" s="212"/>
+      <c r="T19" s="247"/>
+      <c r="U19" s="219"/>
+      <c r="V19" s="258"/>
+      <c r="W19" s="270"/>
+      <c r="X19" s="267"/>
+      <c r="Y19" s="267"/>
+      <c r="Z19" s="267"/>
+      <c r="AA19" s="267"/>
+      <c r="AB19" s="267"/>
+      <c r="AC19" s="267"/>
+      <c r="AD19" s="268"/>
     </row>
     <row r="20" spans="2:30" ht="20" customHeight="1">
       <c r="B20" s="85"/>
@@ -6348,27 +6348,27 @@
       <c r="I20" s="20"/>
       <c r="J20" s="104"/>
       <c r="K20" s="20"/>
-      <c r="L20" s="332"/>
-      <c r="M20" s="292"/>
-      <c r="N20" s="290" t="s">
+      <c r="L20" s="239"/>
+      <c r="M20" s="231"/>
+      <c r="N20" s="229" t="s">
         <v>16</v>
       </c>
-      <c r="O20" s="263"/>
-      <c r="P20" s="261"/>
-      <c r="Q20" s="262"/>
-      <c r="R20" s="261"/>
-      <c r="S20" s="262"/>
-      <c r="T20" s="301"/>
-      <c r="U20" s="267"/>
-      <c r="V20" s="299"/>
-      <c r="W20" s="259"/>
-      <c r="X20" s="250"/>
-      <c r="Y20" s="250"/>
-      <c r="Z20" s="250"/>
-      <c r="AA20" s="250"/>
-      <c r="AB20" s="250"/>
-      <c r="AC20" s="250"/>
-      <c r="AD20" s="251"/>
+      <c r="O20" s="254"/>
+      <c r="P20" s="211"/>
+      <c r="Q20" s="212"/>
+      <c r="R20" s="211"/>
+      <c r="S20" s="212"/>
+      <c r="T20" s="259"/>
+      <c r="U20" s="228"/>
+      <c r="V20" s="257"/>
+      <c r="W20" s="269"/>
+      <c r="X20" s="265"/>
+      <c r="Y20" s="265"/>
+      <c r="Z20" s="265"/>
+      <c r="AA20" s="265"/>
+      <c r="AB20" s="265"/>
+      <c r="AC20" s="265"/>
+      <c r="AD20" s="266"/>
     </row>
     <row r="21" spans="2:30" ht="20" customHeight="1">
       <c r="B21" s="85"/>
@@ -6383,25 +6383,25 @@
       <c r="I21" s="20"/>
       <c r="J21" s="105"/>
       <c r="K21" s="102"/>
-      <c r="L21" s="332"/>
-      <c r="M21" s="293"/>
-      <c r="N21" s="291"/>
-      <c r="O21" s="263"/>
-      <c r="P21" s="261"/>
-      <c r="Q21" s="262"/>
-      <c r="R21" s="261"/>
-      <c r="S21" s="262"/>
-      <c r="T21" s="302"/>
-      <c r="U21" s="268"/>
-      <c r="V21" s="300"/>
-      <c r="W21" s="260"/>
-      <c r="X21" s="254"/>
-      <c r="Y21" s="254"/>
-      <c r="Z21" s="254"/>
-      <c r="AA21" s="254"/>
-      <c r="AB21" s="254"/>
-      <c r="AC21" s="254"/>
-      <c r="AD21" s="255"/>
+      <c r="L21" s="239"/>
+      <c r="M21" s="232"/>
+      <c r="N21" s="230"/>
+      <c r="O21" s="254"/>
+      <c r="P21" s="211"/>
+      <c r="Q21" s="212"/>
+      <c r="R21" s="211"/>
+      <c r="S21" s="212"/>
+      <c r="T21" s="247"/>
+      <c r="U21" s="219"/>
+      <c r="V21" s="258"/>
+      <c r="W21" s="270"/>
+      <c r="X21" s="267"/>
+      <c r="Y21" s="267"/>
+      <c r="Z21" s="267"/>
+      <c r="AA21" s="267"/>
+      <c r="AB21" s="267"/>
+      <c r="AC21" s="267"/>
+      <c r="AD21" s="268"/>
     </row>
     <row r="22" spans="2:30" ht="20" customHeight="1">
       <c r="B22" s="85"/>
@@ -6416,27 +6416,27 @@
       <c r="I22" s="20"/>
       <c r="J22" s="104"/>
       <c r="K22" s="20"/>
-      <c r="L22" s="332"/>
-      <c r="M22" s="292"/>
-      <c r="N22" s="290" t="s">
+      <c r="L22" s="239"/>
+      <c r="M22" s="231"/>
+      <c r="N22" s="229" t="s">
         <v>16</v>
       </c>
-      <c r="O22" s="263"/>
-      <c r="P22" s="261"/>
-      <c r="Q22" s="262"/>
-      <c r="R22" s="261"/>
-      <c r="S22" s="262"/>
-      <c r="T22" s="301"/>
-      <c r="U22" s="267"/>
-      <c r="V22" s="299"/>
-      <c r="W22" s="259"/>
-      <c r="X22" s="250"/>
-      <c r="Y22" s="250"/>
-      <c r="Z22" s="250"/>
-      <c r="AA22" s="250"/>
-      <c r="AB22" s="250"/>
-      <c r="AC22" s="250"/>
-      <c r="AD22" s="251"/>
+      <c r="O22" s="254"/>
+      <c r="P22" s="211"/>
+      <c r="Q22" s="212"/>
+      <c r="R22" s="211"/>
+      <c r="S22" s="212"/>
+      <c r="T22" s="259"/>
+      <c r="U22" s="228"/>
+      <c r="V22" s="257"/>
+      <c r="W22" s="269"/>
+      <c r="X22" s="265"/>
+      <c r="Y22" s="265"/>
+      <c r="Z22" s="265"/>
+      <c r="AA22" s="265"/>
+      <c r="AB22" s="265"/>
+      <c r="AC22" s="265"/>
+      <c r="AD22" s="266"/>
     </row>
     <row r="23" spans="2:30" ht="20" customHeight="1">
       <c r="B23" s="85"/>
@@ -6451,25 +6451,25 @@
       <c r="I23" s="20"/>
       <c r="J23" s="105"/>
       <c r="K23" s="102"/>
-      <c r="L23" s="332"/>
-      <c r="M23" s="293"/>
-      <c r="N23" s="291"/>
-      <c r="O23" s="263"/>
-      <c r="P23" s="261"/>
-      <c r="Q23" s="262"/>
-      <c r="R23" s="261"/>
-      <c r="S23" s="262"/>
-      <c r="T23" s="302"/>
-      <c r="U23" s="268"/>
-      <c r="V23" s="300"/>
-      <c r="W23" s="260"/>
-      <c r="X23" s="254"/>
-      <c r="Y23" s="254"/>
-      <c r="Z23" s="254"/>
-      <c r="AA23" s="254"/>
-      <c r="AB23" s="254"/>
-      <c r="AC23" s="254"/>
-      <c r="AD23" s="255"/>
+      <c r="L23" s="239"/>
+      <c r="M23" s="232"/>
+      <c r="N23" s="230"/>
+      <c r="O23" s="254"/>
+      <c r="P23" s="211"/>
+      <c r="Q23" s="212"/>
+      <c r="R23" s="211"/>
+      <c r="S23" s="212"/>
+      <c r="T23" s="247"/>
+      <c r="U23" s="219"/>
+      <c r="V23" s="258"/>
+      <c r="W23" s="270"/>
+      <c r="X23" s="267"/>
+      <c r="Y23" s="267"/>
+      <c r="Z23" s="267"/>
+      <c r="AA23" s="267"/>
+      <c r="AB23" s="267"/>
+      <c r="AC23" s="267"/>
+      <c r="AD23" s="268"/>
     </row>
     <row r="24" spans="2:30" ht="20" customHeight="1">
       <c r="B24" s="85"/>
@@ -6484,27 +6484,27 @@
       <c r="I24" s="20"/>
       <c r="J24" s="104"/>
       <c r="K24" s="20"/>
-      <c r="L24" s="332"/>
-      <c r="M24" s="292"/>
-      <c r="N24" s="290" t="s">
+      <c r="L24" s="239"/>
+      <c r="M24" s="231"/>
+      <c r="N24" s="229" t="s">
         <v>16</v>
       </c>
-      <c r="O24" s="263"/>
-      <c r="P24" s="261"/>
-      <c r="Q24" s="262"/>
-      <c r="R24" s="261"/>
-      <c r="S24" s="262"/>
-      <c r="T24" s="301"/>
-      <c r="U24" s="267"/>
-      <c r="V24" s="299"/>
-      <c r="W24" s="259"/>
-      <c r="X24" s="250"/>
-      <c r="Y24" s="250"/>
-      <c r="Z24" s="250"/>
-      <c r="AA24" s="250"/>
-      <c r="AB24" s="250"/>
-      <c r="AC24" s="250"/>
-      <c r="AD24" s="251"/>
+      <c r="O24" s="254"/>
+      <c r="P24" s="211"/>
+      <c r="Q24" s="212"/>
+      <c r="R24" s="211"/>
+      <c r="S24" s="212"/>
+      <c r="T24" s="259"/>
+      <c r="U24" s="228"/>
+      <c r="V24" s="257"/>
+      <c r="W24" s="269"/>
+      <c r="X24" s="265"/>
+      <c r="Y24" s="265"/>
+      <c r="Z24" s="265"/>
+      <c r="AA24" s="265"/>
+      <c r="AB24" s="265"/>
+      <c r="AC24" s="265"/>
+      <c r="AD24" s="266"/>
     </row>
     <row r="25" spans="2:30" ht="20" customHeight="1">
       <c r="B25" s="85"/>
@@ -6519,25 +6519,25 @@
       <c r="I25" s="20"/>
       <c r="J25" s="105"/>
       <c r="K25" s="102"/>
-      <c r="L25" s="332"/>
-      <c r="M25" s="293"/>
-      <c r="N25" s="291"/>
-      <c r="O25" s="263"/>
-      <c r="P25" s="261"/>
-      <c r="Q25" s="262"/>
-      <c r="R25" s="261"/>
-      <c r="S25" s="262"/>
-      <c r="T25" s="302"/>
-      <c r="U25" s="268"/>
-      <c r="V25" s="300"/>
-      <c r="W25" s="260"/>
-      <c r="X25" s="254"/>
-      <c r="Y25" s="254"/>
-      <c r="Z25" s="254"/>
-      <c r="AA25" s="254"/>
-      <c r="AB25" s="254"/>
-      <c r="AC25" s="254"/>
-      <c r="AD25" s="255"/>
+      <c r="L25" s="239"/>
+      <c r="M25" s="232"/>
+      <c r="N25" s="230"/>
+      <c r="O25" s="254"/>
+      <c r="P25" s="211"/>
+      <c r="Q25" s="212"/>
+      <c r="R25" s="211"/>
+      <c r="S25" s="212"/>
+      <c r="T25" s="247"/>
+      <c r="U25" s="219"/>
+      <c r="V25" s="258"/>
+      <c r="W25" s="270"/>
+      <c r="X25" s="267"/>
+      <c r="Y25" s="267"/>
+      <c r="Z25" s="267"/>
+      <c r="AA25" s="267"/>
+      <c r="AB25" s="267"/>
+      <c r="AC25" s="267"/>
+      <c r="AD25" s="268"/>
     </row>
     <row r="26" spans="2:30" ht="20" customHeight="1">
       <c r="B26" s="85"/>
@@ -6552,27 +6552,27 @@
       <c r="I26" s="20"/>
       <c r="J26" s="104"/>
       <c r="K26" s="20"/>
-      <c r="L26" s="332"/>
-      <c r="M26" s="292"/>
-      <c r="N26" s="290" t="s">
+      <c r="L26" s="239"/>
+      <c r="M26" s="231"/>
+      <c r="N26" s="229" t="s">
         <v>16</v>
       </c>
-      <c r="O26" s="263"/>
-      <c r="P26" s="261"/>
-      <c r="Q26" s="262"/>
-      <c r="R26" s="261"/>
-      <c r="S26" s="262"/>
-      <c r="T26" s="301"/>
-      <c r="U26" s="267"/>
-      <c r="V26" s="299"/>
-      <c r="W26" s="259"/>
-      <c r="X26" s="250"/>
-      <c r="Y26" s="250"/>
-      <c r="Z26" s="250"/>
-      <c r="AA26" s="250"/>
-      <c r="AB26" s="250"/>
-      <c r="AC26" s="250"/>
-      <c r="AD26" s="251"/>
+      <c r="O26" s="254"/>
+      <c r="P26" s="211"/>
+      <c r="Q26" s="212"/>
+      <c r="R26" s="211"/>
+      <c r="S26" s="212"/>
+      <c r="T26" s="259"/>
+      <c r="U26" s="228"/>
+      <c r="V26" s="257"/>
+      <c r="W26" s="269"/>
+      <c r="X26" s="265"/>
+      <c r="Y26" s="265"/>
+      <c r="Z26" s="265"/>
+      <c r="AA26" s="265"/>
+      <c r="AB26" s="265"/>
+      <c r="AC26" s="265"/>
+      <c r="AD26" s="266"/>
     </row>
     <row r="27" spans="2:30" ht="20" customHeight="1">
       <c r="B27" s="85"/>
@@ -6587,25 +6587,25 @@
       <c r="I27" s="20"/>
       <c r="J27" s="105"/>
       <c r="K27" s="102"/>
-      <c r="L27" s="332"/>
-      <c r="M27" s="293"/>
-      <c r="N27" s="291"/>
-      <c r="O27" s="263"/>
-      <c r="P27" s="261"/>
-      <c r="Q27" s="262"/>
-      <c r="R27" s="261"/>
-      <c r="S27" s="262"/>
-      <c r="T27" s="301"/>
-      <c r="U27" s="268"/>
-      <c r="V27" s="300"/>
-      <c r="W27" s="260"/>
-      <c r="X27" s="254"/>
-      <c r="Y27" s="254"/>
-      <c r="Z27" s="254"/>
-      <c r="AA27" s="254"/>
-      <c r="AB27" s="254"/>
-      <c r="AC27" s="254"/>
-      <c r="AD27" s="255"/>
+      <c r="L27" s="239"/>
+      <c r="M27" s="232"/>
+      <c r="N27" s="230"/>
+      <c r="O27" s="254"/>
+      <c r="P27" s="211"/>
+      <c r="Q27" s="212"/>
+      <c r="R27" s="211"/>
+      <c r="S27" s="212"/>
+      <c r="T27" s="259"/>
+      <c r="U27" s="219"/>
+      <c r="V27" s="258"/>
+      <c r="W27" s="270"/>
+      <c r="X27" s="267"/>
+      <c r="Y27" s="267"/>
+      <c r="Z27" s="267"/>
+      <c r="AA27" s="267"/>
+      <c r="AB27" s="267"/>
+      <c r="AC27" s="267"/>
+      <c r="AD27" s="268"/>
     </row>
     <row r="28" spans="2:30" ht="20" customHeight="1">
       <c r="B28" s="85"/>
@@ -6620,27 +6620,27 @@
       <c r="I28" s="20"/>
       <c r="J28" s="104"/>
       <c r="K28" s="20"/>
-      <c r="L28" s="332"/>
-      <c r="M28" s="292"/>
-      <c r="N28" s="290" t="s">
+      <c r="L28" s="239"/>
+      <c r="M28" s="231"/>
+      <c r="N28" s="229" t="s">
         <v>16</v>
       </c>
-      <c r="O28" s="310"/>
-      <c r="P28" s="267"/>
-      <c r="Q28" s="336"/>
-      <c r="R28" s="261"/>
-      <c r="S28" s="262"/>
-      <c r="T28" s="303"/>
-      <c r="U28" s="267"/>
-      <c r="V28" s="299"/>
-      <c r="W28" s="259"/>
-      <c r="X28" s="250"/>
-      <c r="Y28" s="250"/>
-      <c r="Z28" s="250"/>
-      <c r="AA28" s="250"/>
-      <c r="AB28" s="250"/>
-      <c r="AC28" s="250"/>
-      <c r="AD28" s="251"/>
+      <c r="O28" s="260"/>
+      <c r="P28" s="228"/>
+      <c r="Q28" s="244"/>
+      <c r="R28" s="211"/>
+      <c r="S28" s="212"/>
+      <c r="T28" s="245"/>
+      <c r="U28" s="228"/>
+      <c r="V28" s="257"/>
+      <c r="W28" s="269"/>
+      <c r="X28" s="265"/>
+      <c r="Y28" s="265"/>
+      <c r="Z28" s="265"/>
+      <c r="AA28" s="265"/>
+      <c r="AB28" s="265"/>
+      <c r="AC28" s="265"/>
+      <c r="AD28" s="266"/>
     </row>
     <row r="29" spans="2:30" ht="20" customHeight="1">
       <c r="B29" s="85"/>
@@ -6655,25 +6655,25 @@
       <c r="I29" s="20"/>
       <c r="J29" s="105"/>
       <c r="K29" s="102"/>
-      <c r="L29" s="332"/>
-      <c r="M29" s="293"/>
-      <c r="N29" s="291"/>
-      <c r="O29" s="263"/>
-      <c r="P29" s="267"/>
-      <c r="Q29" s="336"/>
-      <c r="R29" s="261"/>
-      <c r="S29" s="262"/>
-      <c r="T29" s="302"/>
-      <c r="U29" s="268"/>
-      <c r="V29" s="300"/>
-      <c r="W29" s="260"/>
-      <c r="X29" s="254"/>
-      <c r="Y29" s="254"/>
-      <c r="Z29" s="254"/>
-      <c r="AA29" s="254"/>
-      <c r="AB29" s="254"/>
-      <c r="AC29" s="254"/>
-      <c r="AD29" s="255"/>
+      <c r="L29" s="239"/>
+      <c r="M29" s="232"/>
+      <c r="N29" s="230"/>
+      <c r="O29" s="254"/>
+      <c r="P29" s="228"/>
+      <c r="Q29" s="244"/>
+      <c r="R29" s="211"/>
+      <c r="S29" s="212"/>
+      <c r="T29" s="247"/>
+      <c r="U29" s="219"/>
+      <c r="V29" s="258"/>
+      <c r="W29" s="270"/>
+      <c r="X29" s="267"/>
+      <c r="Y29" s="267"/>
+      <c r="Z29" s="267"/>
+      <c r="AA29" s="267"/>
+      <c r="AB29" s="267"/>
+      <c r="AC29" s="267"/>
+      <c r="AD29" s="268"/>
     </row>
     <row r="30" spans="2:30" ht="20" customHeight="1">
       <c r="B30" s="85"/>
@@ -6688,27 +6688,27 @@
       <c r="I30" s="20"/>
       <c r="J30" s="104"/>
       <c r="K30" s="20"/>
-      <c r="L30" s="332"/>
-      <c r="M30" s="292"/>
-      <c r="N30" s="290" t="s">
+      <c r="L30" s="239"/>
+      <c r="M30" s="231"/>
+      <c r="N30" s="229" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="310"/>
-      <c r="P30" s="267"/>
-      <c r="Q30" s="336"/>
-      <c r="R30" s="261"/>
-      <c r="S30" s="262"/>
-      <c r="T30" s="303"/>
-      <c r="U30" s="267"/>
-      <c r="V30" s="299"/>
-      <c r="W30" s="259"/>
-      <c r="X30" s="250"/>
-      <c r="Y30" s="250"/>
-      <c r="Z30" s="250"/>
-      <c r="AA30" s="250"/>
-      <c r="AB30" s="250"/>
-      <c r="AC30" s="250"/>
-      <c r="AD30" s="251"/>
+      <c r="O30" s="260"/>
+      <c r="P30" s="228"/>
+      <c r="Q30" s="244"/>
+      <c r="R30" s="211"/>
+      <c r="S30" s="212"/>
+      <c r="T30" s="245"/>
+      <c r="U30" s="228"/>
+      <c r="V30" s="257"/>
+      <c r="W30" s="269"/>
+      <c r="X30" s="265"/>
+      <c r="Y30" s="265"/>
+      <c r="Z30" s="265"/>
+      <c r="AA30" s="265"/>
+      <c r="AB30" s="265"/>
+      <c r="AC30" s="265"/>
+      <c r="AD30" s="266"/>
     </row>
     <row r="31" spans="2:30" ht="20" customHeight="1">
       <c r="B31" s="85"/>
@@ -6723,25 +6723,25 @@
       <c r="I31" s="20"/>
       <c r="J31" s="105"/>
       <c r="K31" s="102"/>
-      <c r="L31" s="332"/>
-      <c r="M31" s="293"/>
-      <c r="N31" s="291"/>
-      <c r="O31" s="263"/>
-      <c r="P31" s="267"/>
-      <c r="Q31" s="336"/>
-      <c r="R31" s="261"/>
-      <c r="S31" s="262"/>
-      <c r="T31" s="302"/>
-      <c r="U31" s="268"/>
-      <c r="V31" s="300"/>
-      <c r="W31" s="260"/>
-      <c r="X31" s="254"/>
-      <c r="Y31" s="254"/>
-      <c r="Z31" s="254"/>
-      <c r="AA31" s="254"/>
-      <c r="AB31" s="254"/>
-      <c r="AC31" s="254"/>
-      <c r="AD31" s="255"/>
+      <c r="L31" s="239"/>
+      <c r="M31" s="232"/>
+      <c r="N31" s="230"/>
+      <c r="O31" s="254"/>
+      <c r="P31" s="228"/>
+      <c r="Q31" s="244"/>
+      <c r="R31" s="211"/>
+      <c r="S31" s="212"/>
+      <c r="T31" s="247"/>
+      <c r="U31" s="219"/>
+      <c r="V31" s="258"/>
+      <c r="W31" s="270"/>
+      <c r="X31" s="267"/>
+      <c r="Y31" s="267"/>
+      <c r="Z31" s="267"/>
+      <c r="AA31" s="267"/>
+      <c r="AB31" s="267"/>
+      <c r="AC31" s="267"/>
+      <c r="AD31" s="268"/>
     </row>
     <row r="32" spans="2:30" ht="20" customHeight="1">
       <c r="B32" s="85"/>
@@ -6756,27 +6756,27 @@
       <c r="I32" s="20"/>
       <c r="J32" s="104"/>
       <c r="K32" s="20"/>
-      <c r="L32" s="332"/>
-      <c r="M32" s="292"/>
-      <c r="N32" s="290" t="s">
+      <c r="L32" s="239"/>
+      <c r="M32" s="231"/>
+      <c r="N32" s="229" t="s">
         <v>16</v>
       </c>
-      <c r="O32" s="263"/>
-      <c r="P32" s="261"/>
-      <c r="Q32" s="262"/>
-      <c r="R32" s="261"/>
-      <c r="S32" s="262"/>
-      <c r="T32" s="303"/>
-      <c r="U32" s="306"/>
-      <c r="V32" s="308"/>
-      <c r="W32" s="256"/>
-      <c r="X32" s="250"/>
-      <c r="Y32" s="250"/>
-      <c r="Z32" s="250"/>
-      <c r="AA32" s="250"/>
-      <c r="AB32" s="250"/>
-      <c r="AC32" s="250"/>
-      <c r="AD32" s="251"/>
+      <c r="O32" s="254"/>
+      <c r="P32" s="211"/>
+      <c r="Q32" s="212"/>
+      <c r="R32" s="211"/>
+      <c r="S32" s="212"/>
+      <c r="T32" s="245"/>
+      <c r="U32" s="263"/>
+      <c r="V32" s="255"/>
+      <c r="W32" s="300"/>
+      <c r="X32" s="265"/>
+      <c r="Y32" s="265"/>
+      <c r="Z32" s="265"/>
+      <c r="AA32" s="265"/>
+      <c r="AB32" s="265"/>
+      <c r="AC32" s="265"/>
+      <c r="AD32" s="266"/>
     </row>
     <row r="33" spans="2:30" ht="20" customHeight="1">
       <c r="B33" s="85"/>
@@ -6791,25 +6791,25 @@
       <c r="I33" s="20"/>
       <c r="J33" s="104"/>
       <c r="K33" s="102"/>
-      <c r="L33" s="332"/>
-      <c r="M33" s="293"/>
-      <c r="N33" s="291"/>
-      <c r="O33" s="263"/>
-      <c r="P33" s="261"/>
-      <c r="Q33" s="262"/>
-      <c r="R33" s="261"/>
-      <c r="S33" s="262"/>
-      <c r="T33" s="302"/>
-      <c r="U33" s="307"/>
-      <c r="V33" s="309"/>
-      <c r="W33" s="258"/>
-      <c r="X33" s="254"/>
-      <c r="Y33" s="254"/>
-      <c r="Z33" s="254"/>
-      <c r="AA33" s="254"/>
-      <c r="AB33" s="254"/>
-      <c r="AC33" s="254"/>
-      <c r="AD33" s="255"/>
+      <c r="L33" s="239"/>
+      <c r="M33" s="232"/>
+      <c r="N33" s="230"/>
+      <c r="O33" s="254"/>
+      <c r="P33" s="211"/>
+      <c r="Q33" s="212"/>
+      <c r="R33" s="211"/>
+      <c r="S33" s="212"/>
+      <c r="T33" s="247"/>
+      <c r="U33" s="264"/>
+      <c r="V33" s="256"/>
+      <c r="W33" s="302"/>
+      <c r="X33" s="267"/>
+      <c r="Y33" s="267"/>
+      <c r="Z33" s="267"/>
+      <c r="AA33" s="267"/>
+      <c r="AB33" s="267"/>
+      <c r="AC33" s="267"/>
+      <c r="AD33" s="268"/>
     </row>
     <row r="34" spans="2:30" ht="20" customHeight="1" thickBot="1">
       <c r="B34" s="86"/>
@@ -6824,27 +6824,27 @@
       <c r="I34" s="108"/>
       <c r="J34" s="104"/>
       <c r="K34" s="20"/>
-      <c r="L34" s="332"/>
-      <c r="M34" s="314"/>
-      <c r="N34" s="312" t="s">
+      <c r="L34" s="239"/>
+      <c r="M34" s="250"/>
+      <c r="N34" s="248" t="s">
         <v>16</v>
       </c>
-      <c r="O34" s="320"/>
-      <c r="P34" s="316"/>
-      <c r="Q34" s="318"/>
-      <c r="R34" s="316"/>
-      <c r="S34" s="318"/>
-      <c r="T34" s="303"/>
-      <c r="U34" s="267"/>
-      <c r="V34" s="299"/>
-      <c r="W34" s="256"/>
-      <c r="X34" s="250"/>
-      <c r="Y34" s="250"/>
-      <c r="Z34" s="250"/>
-      <c r="AA34" s="250"/>
-      <c r="AB34" s="250"/>
-      <c r="AC34" s="250"/>
-      <c r="AD34" s="251"/>
+      <c r="O34" s="252"/>
+      <c r="P34" s="213"/>
+      <c r="Q34" s="215"/>
+      <c r="R34" s="213"/>
+      <c r="S34" s="215"/>
+      <c r="T34" s="245"/>
+      <c r="U34" s="228"/>
+      <c r="V34" s="257"/>
+      <c r="W34" s="300"/>
+      <c r="X34" s="265"/>
+      <c r="Y34" s="265"/>
+      <c r="Z34" s="265"/>
+      <c r="AA34" s="265"/>
+      <c r="AB34" s="265"/>
+      <c r="AC34" s="265"/>
+      <c r="AD34" s="266"/>
     </row>
     <row r="35" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1">
       <c r="B35" s="87"/>
@@ -6859,53 +6859,163 @@
       <c r="I35" s="110"/>
       <c r="J35" s="106"/>
       <c r="K35" s="91"/>
-      <c r="L35" s="333"/>
-      <c r="M35" s="315"/>
-      <c r="N35" s="313"/>
-      <c r="O35" s="321"/>
-      <c r="P35" s="317"/>
-      <c r="Q35" s="319"/>
-      <c r="R35" s="317"/>
-      <c r="S35" s="319"/>
-      <c r="T35" s="311"/>
-      <c r="U35" s="305"/>
-      <c r="V35" s="304"/>
-      <c r="W35" s="257"/>
-      <c r="X35" s="252"/>
-      <c r="Y35" s="252"/>
-      <c r="Z35" s="252"/>
-      <c r="AA35" s="252"/>
-      <c r="AB35" s="252"/>
-      <c r="AC35" s="252"/>
-      <c r="AD35" s="253"/>
+      <c r="L35" s="240"/>
+      <c r="M35" s="251"/>
+      <c r="N35" s="249"/>
+      <c r="O35" s="253"/>
+      <c r="P35" s="214"/>
+      <c r="Q35" s="216"/>
+      <c r="R35" s="214"/>
+      <c r="S35" s="216"/>
+      <c r="T35" s="246"/>
+      <c r="U35" s="262"/>
+      <c r="V35" s="261"/>
+      <c r="W35" s="301"/>
+      <c r="X35" s="298"/>
+      <c r="Y35" s="298"/>
+      <c r="Z35" s="298"/>
+      <c r="AA35" s="298"/>
+      <c r="AB35" s="298"/>
+      <c r="AC35" s="298"/>
+      <c r="AD35" s="299"/>
     </row>
   </sheetData>
   <mergeCells count="184">
-    <mergeCell ref="R30:R31"/>
-    <mergeCell ref="S30:S31"/>
-    <mergeCell ref="R32:R33"/>
-    <mergeCell ref="S32:S33"/>
-    <mergeCell ref="R34:R35"/>
-    <mergeCell ref="S34:S35"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="S28:S29"/>
-    <mergeCell ref="Z1:AD1"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B3:G4"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="J2:V2"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="U3:V4"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="J3:T6"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="X34:AD35"/>
+    <mergeCell ref="X32:AD33"/>
+    <mergeCell ref="X30:AD31"/>
+    <mergeCell ref="X28:AD29"/>
+    <mergeCell ref="X26:AD27"/>
+    <mergeCell ref="X24:AD25"/>
+    <mergeCell ref="W34:W35"/>
+    <mergeCell ref="W32:W33"/>
+    <mergeCell ref="W30:W31"/>
+    <mergeCell ref="W28:W29"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="W2:AD2"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="W3:AD8"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="W16:W17"/>
+    <mergeCell ref="W14:W15"/>
+    <mergeCell ref="W12:W13"/>
+    <mergeCell ref="W10:W11"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="M9:AD9"/>
+    <mergeCell ref="X10:AD11"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="X22:AD23"/>
+    <mergeCell ref="X20:AD21"/>
+    <mergeCell ref="X18:AD19"/>
+    <mergeCell ref="X16:AD17"/>
+    <mergeCell ref="X14:AD15"/>
+    <mergeCell ref="W26:W27"/>
+    <mergeCell ref="W24:W25"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="X12:AD13"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="T20:T21"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="W22:W23"/>
+    <mergeCell ref="W20:W21"/>
+    <mergeCell ref="W18:W19"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="V34:V35"/>
+    <mergeCell ref="V30:V31"/>
+    <mergeCell ref="V28:V29"/>
+    <mergeCell ref="V26:V27"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="V22:V23"/>
+    <mergeCell ref="U30:U31"/>
+    <mergeCell ref="U28:U29"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="U22:U23"/>
+    <mergeCell ref="U34:U35"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="U20:U21"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="V32:V33"/>
+    <mergeCell ref="V20:V21"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="T34:T35"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="Q34:Q35"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="O32:O33"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="U10:U11"/>
@@ -6930,141 +7040,31 @@
     <mergeCell ref="M28:M29"/>
     <mergeCell ref="P28:P29"/>
     <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="T34:T35"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="P34:P35"/>
-    <mergeCell ref="Q34:Q35"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="O34:O35"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="U20:U21"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="V32:V33"/>
-    <mergeCell ref="V20:V21"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="V34:V35"/>
-    <mergeCell ref="V30:V31"/>
-    <mergeCell ref="V28:V29"/>
-    <mergeCell ref="V26:V27"/>
-    <mergeCell ref="V24:V25"/>
-    <mergeCell ref="V22:V23"/>
-    <mergeCell ref="U30:U31"/>
-    <mergeCell ref="U28:U29"/>
-    <mergeCell ref="U26:U27"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="U22:U23"/>
-    <mergeCell ref="U34:U35"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="X22:AD23"/>
-    <mergeCell ref="X20:AD21"/>
-    <mergeCell ref="X18:AD19"/>
-    <mergeCell ref="X16:AD17"/>
-    <mergeCell ref="X14:AD15"/>
-    <mergeCell ref="W26:W27"/>
-    <mergeCell ref="W24:W25"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="X12:AD13"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="V14:V15"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="T20:T21"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="V12:V13"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="W22:W23"/>
-    <mergeCell ref="W20:W21"/>
-    <mergeCell ref="W18:W19"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="W2:AD2"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="W3:AD8"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="W16:W17"/>
-    <mergeCell ref="W14:W15"/>
-    <mergeCell ref="W12:W13"/>
-    <mergeCell ref="W10:W11"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="M9:AD9"/>
-    <mergeCell ref="X10:AD11"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="X34:AD35"/>
-    <mergeCell ref="X32:AD33"/>
-    <mergeCell ref="X30:AD31"/>
-    <mergeCell ref="X28:AD29"/>
-    <mergeCell ref="X26:AD27"/>
-    <mergeCell ref="X24:AD25"/>
-    <mergeCell ref="W34:W35"/>
-    <mergeCell ref="W32:W33"/>
-    <mergeCell ref="W30:W31"/>
-    <mergeCell ref="W28:W29"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B3:G4"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="J2:V2"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="U3:V4"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="J3:T6"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="Z1:AD1"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="R30:R31"/>
+    <mergeCell ref="S30:S31"/>
+    <mergeCell ref="R32:R33"/>
+    <mergeCell ref="S32:S33"/>
+    <mergeCell ref="R34:R35"/>
+    <mergeCell ref="S34:S35"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="S28:S29"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -7081,7 +7081,7 @@
   <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+      <selection activeCell="O12" sqref="O12:P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="13"/>
@@ -7106,206 +7106,208 @@
   <sheetData>
     <row r="1" spans="1:19" ht="8" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:19" ht="16" customHeight="1">
-      <c r="A2" s="384" t="s">
+      <c r="A2" s="379" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="385"/>
-      <c r="C2" s="385"/>
-      <c r="D2" s="385"/>
-      <c r="E2" s="385" t="s">
+      <c r="B2" s="380"/>
+      <c r="C2" s="380"/>
+      <c r="D2" s="380"/>
+      <c r="E2" s="380" t="s">
         <v>177</v>
       </c>
-      <c r="F2" s="385"/>
-      <c r="G2" s="385"/>
-      <c r="H2" s="385"/>
-      <c r="I2" s="385"/>
-      <c r="J2" s="385" t="s">
+      <c r="F2" s="380"/>
+      <c r="G2" s="380"/>
+      <c r="H2" s="380"/>
+      <c r="I2" s="380"/>
+      <c r="J2" s="380" t="s">
         <v>144</v>
       </c>
-      <c r="K2" s="385"/>
-      <c r="L2" s="385"/>
-      <c r="M2" s="385"/>
-      <c r="N2" s="385"/>
-      <c r="O2" s="385"/>
-      <c r="P2" s="385"/>
-      <c r="Q2" s="385"/>
-      <c r="R2" s="385"/>
-      <c r="S2" s="386"/>
+      <c r="K2" s="380"/>
+      <c r="L2" s="380"/>
+      <c r="M2" s="380"/>
+      <c r="N2" s="380"/>
+      <c r="O2" s="380"/>
+      <c r="P2" s="380"/>
+      <c r="Q2" s="380"/>
+      <c r="R2" s="380"/>
+      <c r="S2" s="381"/>
     </row>
     <row r="3" spans="1:19" ht="27" customHeight="1">
-      <c r="A3" s="387"/>
-      <c r="B3" s="388"/>
-      <c r="C3" s="388"/>
-      <c r="D3" s="388"/>
-      <c r="E3" s="388"/>
-      <c r="F3" s="388"/>
-      <c r="G3" s="388"/>
-      <c r="H3" s="388"/>
-      <c r="I3" s="388"/>
-      <c r="J3" s="388"/>
-      <c r="K3" s="388"/>
-      <c r="L3" s="388"/>
-      <c r="M3" s="388"/>
-      <c r="N3" s="388"/>
-      <c r="O3" s="388"/>
-      <c r="P3" s="388"/>
-      <c r="Q3" s="388"/>
-      <c r="R3" s="388"/>
-      <c r="S3" s="389"/>
+      <c r="A3" s="382"/>
+      <c r="B3" s="383"/>
+      <c r="C3" s="383"/>
+      <c r="D3" s="383"/>
+      <c r="E3" s="383"/>
+      <c r="F3" s="383"/>
+      <c r="G3" s="383"/>
+      <c r="H3" s="383"/>
+      <c r="I3" s="383"/>
+      <c r="J3" s="383"/>
+      <c r="K3" s="383"/>
+      <c r="L3" s="383"/>
+      <c r="M3" s="383"/>
+      <c r="N3" s="383"/>
+      <c r="O3" s="383"/>
+      <c r="P3" s="383"/>
+      <c r="Q3" s="383"/>
+      <c r="R3" s="383"/>
+      <c r="S3" s="384"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1">
-      <c r="A4" s="390" t="s">
+      <c r="A4" s="373" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="391"/>
-      <c r="C4" s="391"/>
-      <c r="D4" s="391"/>
-      <c r="E4" s="391" t="s">
+      <c r="B4" s="374"/>
+      <c r="C4" s="374"/>
+      <c r="D4" s="374"/>
+      <c r="E4" s="374" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="391"/>
-      <c r="G4" s="391"/>
-      <c r="H4" s="391"/>
-      <c r="I4" s="391"/>
-      <c r="J4" s="388"/>
-      <c r="K4" s="388"/>
-      <c r="L4" s="388"/>
-      <c r="M4" s="388"/>
-      <c r="N4" s="388"/>
-      <c r="O4" s="388"/>
-      <c r="P4" s="388"/>
-      <c r="Q4" s="388"/>
-      <c r="R4" s="388"/>
-      <c r="S4" s="389"/>
+      <c r="F4" s="374"/>
+      <c r="G4" s="374"/>
+      <c r="H4" s="374"/>
+      <c r="I4" s="374"/>
+      <c r="J4" s="383"/>
+      <c r="K4" s="383"/>
+      <c r="L4" s="383"/>
+      <c r="M4" s="383"/>
+      <c r="N4" s="383"/>
+      <c r="O4" s="383"/>
+      <c r="P4" s="383"/>
+      <c r="Q4" s="383"/>
+      <c r="R4" s="383"/>
+      <c r="S4" s="384"/>
     </row>
     <row r="5" spans="1:19" ht="27" customHeight="1">
-      <c r="A5" s="387"/>
-      <c r="B5" s="388"/>
-      <c r="C5" s="388"/>
-      <c r="D5" s="388"/>
-      <c r="E5" s="392"/>
-      <c r="F5" s="392"/>
-      <c r="G5" s="392"/>
-      <c r="H5" s="392"/>
-      <c r="I5" s="392"/>
-      <c r="J5" s="388"/>
-      <c r="K5" s="388"/>
-      <c r="L5" s="388"/>
-      <c r="M5" s="388"/>
-      <c r="N5" s="388"/>
-      <c r="O5" s="388"/>
-      <c r="P5" s="388"/>
-      <c r="Q5" s="388"/>
-      <c r="R5" s="388"/>
-      <c r="S5" s="389"/>
+      <c r="A5" s="382"/>
+      <c r="B5" s="383"/>
+      <c r="C5" s="383"/>
+      <c r="D5" s="383"/>
+      <c r="E5" s="385"/>
+      <c r="F5" s="385"/>
+      <c r="G5" s="385"/>
+      <c r="H5" s="385"/>
+      <c r="I5" s="385"/>
+      <c r="J5" s="383"/>
+      <c r="K5" s="383"/>
+      <c r="L5" s="383"/>
+      <c r="M5" s="383"/>
+      <c r="N5" s="383"/>
+      <c r="O5" s="383"/>
+      <c r="P5" s="383"/>
+      <c r="Q5" s="383"/>
+      <c r="R5" s="383"/>
+      <c r="S5" s="384"/>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1">
-      <c r="A6" s="390" t="s">
+      <c r="A6" s="373" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="391"/>
-      <c r="C6" s="391"/>
-      <c r="D6" s="391"/>
-      <c r="E6" s="393" t="s">
+      <c r="B6" s="374"/>
+      <c r="C6" s="374"/>
+      <c r="D6" s="374"/>
+      <c r="E6" s="375" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="393"/>
-      <c r="G6" s="393"/>
-      <c r="H6" s="393"/>
-      <c r="I6" s="393"/>
-      <c r="J6" s="346" t="s">
+      <c r="F6" s="375"/>
+      <c r="G6" s="375"/>
+      <c r="H6" s="375"/>
+      <c r="I6" s="375"/>
+      <c r="J6" s="366" t="s">
         <v>161</v>
       </c>
-      <c r="K6" s="347" t="s">
+      <c r="K6" s="367" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="394" t="s">
+      <c r="L6" s="376" t="s">
         <v>38</v>
       </c>
-      <c r="M6" s="347" t="s">
+      <c r="M6" s="367" t="s">
         <v>39</v>
       </c>
-      <c r="N6" s="347"/>
-      <c r="O6" s="347" t="s">
+      <c r="N6" s="367"/>
+      <c r="O6" s="367" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="347"/>
-      <c r="Q6" s="348" t="s">
+      <c r="P6" s="367"/>
+      <c r="Q6" s="361" t="s">
         <v>40</v>
       </c>
-      <c r="R6" s="348"/>
-      <c r="S6" s="350"/>
+      <c r="R6" s="361"/>
+      <c r="S6" s="362"/>
     </row>
     <row r="7" spans="1:19" ht="27" customHeight="1" thickBot="1">
-      <c r="A7" s="395"/>
-      <c r="B7" s="396"/>
-      <c r="C7" s="396"/>
-      <c r="D7" s="396"/>
-      <c r="E7" s="396"/>
-      <c r="F7" s="396"/>
-      <c r="G7" s="396"/>
-      <c r="H7" s="396"/>
-      <c r="I7" s="396"/>
-      <c r="J7" s="346"/>
-      <c r="K7" s="347"/>
-      <c r="L7" s="394"/>
-      <c r="M7" s="347"/>
-      <c r="N7" s="347"/>
-      <c r="O7" s="347"/>
-      <c r="P7" s="347"/>
-      <c r="Q7" s="348"/>
-      <c r="R7" s="348"/>
-      <c r="S7" s="350"/>
+      <c r="A7" s="377"/>
+      <c r="B7" s="378"/>
+      <c r="C7" s="378"/>
+      <c r="D7" s="378"/>
+      <c r="E7" s="378"/>
+      <c r="F7" s="378"/>
+      <c r="G7" s="378"/>
+      <c r="H7" s="378"/>
+      <c r="I7" s="378"/>
+      <c r="J7" s="366"/>
+      <c r="K7" s="367"/>
+      <c r="L7" s="376"/>
+      <c r="M7" s="367"/>
+      <c r="N7" s="367"/>
+      <c r="O7" s="367"/>
+      <c r="P7" s="367"/>
+      <c r="Q7" s="361"/>
+      <c r="R7" s="361"/>
+      <c r="S7" s="362"/>
     </row>
     <row r="8" spans="1:19" ht="32" customHeight="1" thickBot="1">
-      <c r="A8" s="376" t="s">
+      <c r="A8" s="370" t="s">
         <v>252</v>
       </c>
-      <c r="B8" s="377"/>
-      <c r="C8" s="377"/>
-      <c r="D8" s="377"/>
-      <c r="E8" s="377"/>
-      <c r="F8" s="377"/>
-      <c r="G8" s="377"/>
-      <c r="H8" s="377"/>
-      <c r="I8" s="378"/>
+      <c r="B8" s="371"/>
+      <c r="C8" s="371"/>
+      <c r="D8" s="371"/>
+      <c r="E8" s="371"/>
+      <c r="F8" s="371"/>
+      <c r="G8" s="371"/>
+      <c r="H8" s="371"/>
+      <c r="I8" s="372"/>
       <c r="J8" s="78" t="s">
         <v>162</v>
       </c>
       <c r="K8" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="100" t="s">
         <v>163</v>
       </c>
-      <c r="L8" s="100" t="s">
+      <c r="M8" s="367" t="s">
         <v>164</v>
       </c>
-      <c r="M8" s="347" t="s">
+      <c r="N8" s="406"/>
+      <c r="O8" s="367" t="s">
         <v>165</v>
       </c>
-      <c r="N8" s="349"/>
-      <c r="O8" s="347" t="s">
+      <c r="P8" s="406"/>
+      <c r="Q8" s="418" t="s">
         <v>166</v>
       </c>
-      <c r="P8" s="349"/>
-      <c r="Q8" s="351"/>
-      <c r="R8" s="351"/>
-      <c r="S8" s="352"/>
+      <c r="R8" s="418"/>
+      <c r="S8" s="419"/>
     </row>
     <row r="9" spans="1:19" ht="32" customHeight="1">
-      <c r="A9" s="379" t="s">
+      <c r="A9" s="388" t="s">
         <v>253</v>
       </c>
-      <c r="B9" s="344" t="s">
+      <c r="B9" s="340" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="344"/>
+      <c r="C9" s="340"/>
       <c r="D9" s="82"/>
       <c r="E9" s="98" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="98"/>
       <c r="G9" s="99"/>
-      <c r="H9" s="383"/>
-      <c r="I9" s="383"/>
+      <c r="H9" s="392"/>
+      <c r="I9" s="392"/>
       <c r="J9" s="79" t="s">
         <v>63</v>
       </c>
@@ -7315,34 +7317,34 @@
       <c r="L9" s="80" t="s">
         <v>137</v>
       </c>
-      <c r="M9" s="348" t="s">
+      <c r="M9" s="361" t="s">
         <v>136</v>
       </c>
-      <c r="N9" s="347"/>
-      <c r="O9" s="348" t="s">
+      <c r="N9" s="367"/>
+      <c r="O9" s="361" t="s">
         <v>138</v>
       </c>
-      <c r="P9" s="347"/>
-      <c r="Q9" s="348" t="s">
+      <c r="P9" s="367"/>
+      <c r="Q9" s="361" t="s">
         <v>139</v>
       </c>
-      <c r="R9" s="348"/>
-      <c r="S9" s="350"/>
+      <c r="R9" s="361"/>
+      <c r="S9" s="362"/>
     </row>
     <row r="10" spans="1:19" ht="32" customHeight="1">
-      <c r="A10" s="380"/>
-      <c r="B10" s="186" t="s">
+      <c r="A10" s="389"/>
+      <c r="B10" s="195" t="s">
         <v>158</v>
       </c>
-      <c r="C10" s="186"/>
+      <c r="C10" s="195"/>
       <c r="D10" s="81"/>
       <c r="E10" s="93" t="s">
         <v>27</v>
       </c>
       <c r="F10" s="93"/>
       <c r="G10" s="95"/>
-      <c r="H10" s="339"/>
-      <c r="I10" s="339"/>
+      <c r="H10" s="387"/>
+      <c r="I10" s="387"/>
       <c r="J10" s="79" t="s">
         <v>64</v>
       </c>
@@ -7352,140 +7354,140 @@
       <c r="L10" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="M10" s="347" t="s">
+      <c r="M10" s="367" t="s">
         <v>23</v>
       </c>
-      <c r="N10" s="347"/>
-      <c r="O10" s="347" t="s">
+      <c r="N10" s="367"/>
+      <c r="O10" s="367" t="s">
         <v>41</v>
       </c>
-      <c r="P10" s="347"/>
-      <c r="Q10" s="348" t="s">
+      <c r="P10" s="367"/>
+      <c r="Q10" s="361" t="s">
         <v>42</v>
       </c>
-      <c r="R10" s="348"/>
-      <c r="S10" s="350"/>
+      <c r="R10" s="361"/>
+      <c r="S10" s="362"/>
     </row>
     <row r="11" spans="1:19" ht="32" customHeight="1">
-      <c r="A11" s="380"/>
-      <c r="B11" s="186" t="s">
+      <c r="A11" s="389"/>
+      <c r="B11" s="195" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="186"/>
+      <c r="C11" s="195"/>
       <c r="D11" s="93"/>
-      <c r="E11" s="374" t="s">
+      <c r="E11" s="386" t="s">
         <v>232</v>
       </c>
-      <c r="F11" s="186"/>
-      <c r="G11" s="186"/>
-      <c r="H11" s="339"/>
-      <c r="I11" s="339"/>
-      <c r="J11" s="346" t="s">
+      <c r="F11" s="195"/>
+      <c r="G11" s="195"/>
+      <c r="H11" s="387"/>
+      <c r="I11" s="387"/>
+      <c r="J11" s="366" t="s">
         <v>65</v>
       </c>
-      <c r="K11" s="346"/>
+      <c r="K11" s="366"/>
       <c r="L11" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="M11" s="347" t="s">
+      <c r="M11" s="367" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="347"/>
-      <c r="O11" s="347" t="s">
+      <c r="N11" s="367"/>
+      <c r="O11" s="367" t="s">
         <v>55</v>
       </c>
-      <c r="P11" s="347"/>
-      <c r="Q11" s="353"/>
-      <c r="R11" s="353"/>
-      <c r="S11" s="354"/>
+      <c r="P11" s="367"/>
+      <c r="Q11" s="359"/>
+      <c r="R11" s="359"/>
+      <c r="S11" s="360"/>
     </row>
     <row r="12" spans="1:19" ht="32" customHeight="1">
-      <c r="A12" s="380"/>
-      <c r="B12" s="374" t="s">
+      <c r="A12" s="389"/>
+      <c r="B12" s="386" t="s">
         <v>180</v>
       </c>
-      <c r="C12" s="374"/>
+      <c r="C12" s="386"/>
       <c r="D12" s="81"/>
-      <c r="E12" s="186" t="s">
+      <c r="E12" s="195" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="186"/>
-      <c r="G12" s="186"/>
-      <c r="H12" s="339"/>
-      <c r="I12" s="339"/>
-      <c r="J12" s="346" t="s">
+      <c r="F12" s="195"/>
+      <c r="G12" s="195"/>
+      <c r="H12" s="387"/>
+      <c r="I12" s="387"/>
+      <c r="J12" s="366" t="s">
         <v>66</v>
       </c>
-      <c r="K12" s="346"/>
+      <c r="K12" s="366"/>
       <c r="L12" s="80" t="s">
         <v>196</v>
       </c>
-      <c r="M12" s="348" t="s">
+      <c r="M12" s="361" t="s">
         <v>200</v>
       </c>
-      <c r="N12" s="347"/>
-      <c r="O12" s="348" t="s">
+      <c r="N12" s="367"/>
+      <c r="O12" s="361" t="s">
         <v>201</v>
       </c>
-      <c r="P12" s="347"/>
-      <c r="Q12" s="353"/>
-      <c r="R12" s="353"/>
-      <c r="S12" s="354"/>
+      <c r="P12" s="367"/>
+      <c r="Q12" s="359"/>
+      <c r="R12" s="359"/>
+      <c r="S12" s="360"/>
     </row>
     <row r="13" spans="1:19" ht="32" customHeight="1">
-      <c r="A13" s="380"/>
-      <c r="B13" s="186" t="s">
+      <c r="A13" s="389"/>
+      <c r="B13" s="195" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="186"/>
+      <c r="C13" s="195"/>
       <c r="D13" s="81"/>
-      <c r="E13" s="374" t="s">
+      <c r="E13" s="386" t="s">
         <v>159</v>
       </c>
-      <c r="F13" s="374"/>
-      <c r="G13" s="374"/>
-      <c r="H13" s="339"/>
-      <c r="I13" s="339"/>
-      <c r="J13" s="346" t="s">
+      <c r="F13" s="386"/>
+      <c r="G13" s="386"/>
+      <c r="H13" s="387"/>
+      <c r="I13" s="387"/>
+      <c r="J13" s="366" t="s">
         <v>67</v>
       </c>
-      <c r="K13" s="346"/>
+      <c r="K13" s="366"/>
       <c r="L13" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="M13" s="347" t="s">
+      <c r="M13" s="367" t="s">
         <v>28</v>
       </c>
-      <c r="N13" s="347"/>
-      <c r="O13" s="347" t="s">
+      <c r="N13" s="367"/>
+      <c r="O13" s="367" t="s">
         <v>57</v>
       </c>
-      <c r="P13" s="347"/>
-      <c r="Q13" s="348" t="s">
+      <c r="P13" s="367"/>
+      <c r="Q13" s="361" t="s">
         <v>58</v>
       </c>
-      <c r="R13" s="348"/>
-      <c r="S13" s="350"/>
+      <c r="R13" s="361"/>
+      <c r="S13" s="362"/>
     </row>
     <row r="14" spans="1:19" ht="32" customHeight="1">
-      <c r="A14" s="380"/>
-      <c r="B14" s="374" t="s">
+      <c r="A14" s="389"/>
+      <c r="B14" s="386" t="s">
         <v>231</v>
       </c>
-      <c r="C14" s="186"/>
+      <c r="C14" s="195"/>
       <c r="D14" s="93"/>
-      <c r="E14" s="374" t="s">
+      <c r="E14" s="386" t="s">
         <v>143</v>
       </c>
-      <c r="F14" s="374"/>
-      <c r="G14" s="374"/>
-      <c r="H14" s="339"/>
-      <c r="I14" s="339"/>
-      <c r="J14" s="346" t="s">
+      <c r="F14" s="386"/>
+      <c r="G14" s="386"/>
+      <c r="H14" s="387"/>
+      <c r="I14" s="387"/>
+      <c r="J14" s="366" t="s">
         <v>214</v>
       </c>
-      <c r="K14" s="346"/>
-      <c r="L14" s="346"/>
+      <c r="K14" s="366"/>
+      <c r="L14" s="366"/>
       <c r="M14" s="81"/>
       <c r="N14" s="25" t="s">
         <v>29</v>
@@ -7494,244 +7496,244 @@
       <c r="P14" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="Q14" s="186"/>
-      <c r="R14" s="186"/>
+      <c r="Q14" s="195"/>
+      <c r="R14" s="195"/>
       <c r="S14" s="97" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="36" customHeight="1" thickBot="1">
-      <c r="A15" s="381"/>
-      <c r="B15" s="341" t="s">
+      <c r="A15" s="390"/>
+      <c r="B15" s="408" t="s">
         <v>233</v>
       </c>
-      <c r="C15" s="342"/>
+      <c r="C15" s="409"/>
       <c r="D15" s="96"/>
-      <c r="E15" s="375" t="s">
+      <c r="E15" s="417" t="s">
         <v>230</v>
       </c>
-      <c r="F15" s="375"/>
-      <c r="G15" s="375"/>
-      <c r="H15" s="382"/>
-      <c r="I15" s="382"/>
-      <c r="J15" s="408" t="s">
+      <c r="F15" s="417"/>
+      <c r="G15" s="417"/>
+      <c r="H15" s="391"/>
+      <c r="I15" s="391"/>
+      <c r="J15" s="368" t="s">
         <v>68</v>
       </c>
-      <c r="K15" s="409"/>
+      <c r="K15" s="369"/>
       <c r="L15" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="M15" s="367" t="s">
+      <c r="M15" s="393" t="s">
         <v>197</v>
       </c>
-      <c r="N15" s="367"/>
-      <c r="O15" s="367" t="s">
+      <c r="N15" s="393"/>
+      <c r="O15" s="393" t="s">
         <v>198</v>
       </c>
-      <c r="P15" s="367"/>
-      <c r="Q15" s="367" t="s">
+      <c r="P15" s="393"/>
+      <c r="Q15" s="393" t="s">
         <v>199</v>
       </c>
-      <c r="R15" s="367"/>
-      <c r="S15" s="368"/>
+      <c r="R15" s="393"/>
+      <c r="S15" s="394"/>
     </row>
     <row r="16" spans="1:19" ht="25" customHeight="1" thickBot="1">
       <c r="A16" s="111"/>
       <c r="B16" s="111"/>
       <c r="C16" s="111"/>
-      <c r="D16" s="335" t="s">
+      <c r="D16" s="243" t="s">
         <v>202</v>
       </c>
-      <c r="E16" s="362"/>
-      <c r="F16" s="362"/>
-      <c r="G16" s="362"/>
-      <c r="H16" s="362"/>
-      <c r="I16" s="363"/>
-      <c r="J16" s="376" t="s">
+      <c r="E16" s="412"/>
+      <c r="F16" s="412"/>
+      <c r="G16" s="412"/>
+      <c r="H16" s="412"/>
+      <c r="I16" s="413"/>
+      <c r="J16" s="370" t="s">
         <v>227</v>
       </c>
-      <c r="K16" s="377"/>
-      <c r="L16" s="377"/>
-      <c r="M16" s="377"/>
-      <c r="N16" s="377"/>
-      <c r="O16" s="377"/>
-      <c r="P16" s="377"/>
-      <c r="Q16" s="377"/>
-      <c r="R16" s="377"/>
-      <c r="S16" s="378"/>
+      <c r="K16" s="371"/>
+      <c r="L16" s="371"/>
+      <c r="M16" s="371"/>
+      <c r="N16" s="371"/>
+      <c r="O16" s="371"/>
+      <c r="P16" s="371"/>
+      <c r="Q16" s="371"/>
+      <c r="R16" s="371"/>
+      <c r="S16" s="372"/>
     </row>
     <row r="17" spans="1:19" ht="21.5" customHeight="1" thickBot="1">
       <c r="A17" s="24"/>
       <c r="B17" s="24"/>
       <c r="C17" s="24"/>
-      <c r="D17" s="364"/>
-      <c r="E17" s="365"/>
-      <c r="F17" s="365"/>
-      <c r="G17" s="365"/>
-      <c r="H17" s="365"/>
-      <c r="I17" s="366"/>
-      <c r="J17" s="372" t="s">
+      <c r="D17" s="414"/>
+      <c r="E17" s="415"/>
+      <c r="F17" s="415"/>
+      <c r="G17" s="415"/>
+      <c r="H17" s="415"/>
+      <c r="I17" s="416"/>
+      <c r="J17" s="397" t="s">
         <v>264</v>
       </c>
-      <c r="K17" s="406" t="s">
+      <c r="K17" s="363" t="s">
         <v>263</v>
       </c>
-      <c r="L17" s="406"/>
-      <c r="M17" s="369" t="s">
+      <c r="L17" s="363"/>
+      <c r="M17" s="365" t="s">
         <v>265</v>
       </c>
-      <c r="N17" s="369"/>
-      <c r="O17" s="369"/>
-      <c r="P17" s="369" t="s">
+      <c r="N17" s="365"/>
+      <c r="O17" s="365"/>
+      <c r="P17" s="365" t="s">
         <v>262</v>
       </c>
-      <c r="Q17" s="369"/>
-      <c r="R17" s="369"/>
-      <c r="S17" s="370"/>
+      <c r="Q17" s="365"/>
+      <c r="R17" s="365"/>
+      <c r="S17" s="395"/>
     </row>
     <row r="18" spans="1:19" ht="21.5" customHeight="1">
       <c r="A18" s="24"/>
       <c r="B18" s="24"/>
       <c r="C18" s="24"/>
-      <c r="D18" s="343"/>
-      <c r="E18" s="344"/>
-      <c r="F18" s="340" t="s">
+      <c r="D18" s="410"/>
+      <c r="E18" s="340"/>
+      <c r="F18" s="407" t="s">
         <v>240</v>
       </c>
-      <c r="G18" s="340" t="s">
+      <c r="G18" s="407" t="s">
         <v>72</v>
       </c>
-      <c r="H18" s="340" t="s">
+      <c r="H18" s="407" t="s">
         <v>76</v>
       </c>
-      <c r="I18" s="340"/>
-      <c r="J18" s="373"/>
-      <c r="K18" s="407"/>
-      <c r="L18" s="407"/>
-      <c r="M18" s="211"/>
-      <c r="N18" s="211"/>
-      <c r="O18" s="211"/>
-      <c r="P18" s="211"/>
-      <c r="Q18" s="211"/>
-      <c r="R18" s="211"/>
-      <c r="S18" s="371"/>
+      <c r="I18" s="407"/>
+      <c r="J18" s="398"/>
+      <c r="K18" s="364"/>
+      <c r="L18" s="364"/>
+      <c r="M18" s="303"/>
+      <c r="N18" s="303"/>
+      <c r="O18" s="303"/>
+      <c r="P18" s="303"/>
+      <c r="Q18" s="303"/>
+      <c r="R18" s="303"/>
+      <c r="S18" s="396"/>
     </row>
     <row r="19" spans="1:19" ht="21.5" customHeight="1">
       <c r="A19" s="24"/>
       <c r="B19" s="24"/>
       <c r="C19" s="24"/>
-      <c r="D19" s="345"/>
-      <c r="E19" s="186"/>
-      <c r="F19" s="175"/>
-      <c r="G19" s="175"/>
-      <c r="H19" s="175"/>
-      <c r="I19" s="175"/>
-      <c r="J19" s="397"/>
-      <c r="K19" s="398"/>
-      <c r="L19" s="399"/>
-      <c r="M19" s="398"/>
-      <c r="N19" s="402"/>
-      <c r="O19" s="399"/>
-      <c r="P19" s="398"/>
-      <c r="Q19" s="402"/>
-      <c r="R19" s="402"/>
-      <c r="S19" s="404"/>
+      <c r="D19" s="411"/>
+      <c r="E19" s="195"/>
+      <c r="F19" s="202"/>
+      <c r="G19" s="202"/>
+      <c r="H19" s="202"/>
+      <c r="I19" s="202"/>
+      <c r="J19" s="339"/>
+      <c r="K19" s="347"/>
+      <c r="L19" s="357"/>
+      <c r="M19" s="347"/>
+      <c r="N19" s="348"/>
+      <c r="O19" s="357"/>
+      <c r="P19" s="347"/>
+      <c r="Q19" s="348"/>
+      <c r="R19" s="348"/>
+      <c r="S19" s="349"/>
     </row>
     <row r="20" spans="1:19" ht="21.5" customHeight="1">
       <c r="A20" s="24"/>
       <c r="B20" s="24"/>
       <c r="C20" s="24"/>
-      <c r="D20" s="177" t="s">
+      <c r="D20" s="190" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="178"/>
+      <c r="E20" s="191"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="360"/>
-      <c r="I20" s="361"/>
-      <c r="J20" s="344"/>
-      <c r="K20" s="400"/>
-      <c r="L20" s="401"/>
-      <c r="M20" s="400"/>
-      <c r="N20" s="403"/>
-      <c r="O20" s="401"/>
-      <c r="P20" s="400"/>
-      <c r="Q20" s="403"/>
-      <c r="R20" s="403"/>
-      <c r="S20" s="405"/>
+      <c r="H20" s="404"/>
+      <c r="I20" s="405"/>
+      <c r="J20" s="340"/>
+      <c r="K20" s="350"/>
+      <c r="L20" s="358"/>
+      <c r="M20" s="350"/>
+      <c r="N20" s="351"/>
+      <c r="O20" s="358"/>
+      <c r="P20" s="350"/>
+      <c r="Q20" s="351"/>
+      <c r="R20" s="351"/>
+      <c r="S20" s="352"/>
     </row>
     <row r="21" spans="1:19" ht="21.5" customHeight="1">
       <c r="A21" s="24"/>
       <c r="B21" s="24"/>
       <c r="C21" s="24"/>
-      <c r="D21" s="177" t="s">
+      <c r="D21" s="190" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="178"/>
+      <c r="E21" s="191"/>
       <c r="F21" s="12"/>
       <c r="G21" s="11"/>
-      <c r="H21" s="355"/>
-      <c r="I21" s="356"/>
-      <c r="J21" s="397"/>
-      <c r="K21" s="410"/>
-      <c r="L21" s="411"/>
-      <c r="M21" s="410"/>
-      <c r="N21" s="414"/>
-      <c r="O21" s="411"/>
-      <c r="P21" s="398"/>
-      <c r="Q21" s="402"/>
-      <c r="R21" s="402"/>
-      <c r="S21" s="404"/>
+      <c r="H21" s="399"/>
+      <c r="I21" s="400"/>
+      <c r="J21" s="339"/>
+      <c r="K21" s="341"/>
+      <c r="L21" s="342"/>
+      <c r="M21" s="341"/>
+      <c r="N21" s="345"/>
+      <c r="O21" s="342"/>
+      <c r="P21" s="347"/>
+      <c r="Q21" s="348"/>
+      <c r="R21" s="348"/>
+      <c r="S21" s="349"/>
     </row>
     <row r="22" spans="1:19" ht="21.5" customHeight="1">
       <c r="A22" s="24"/>
       <c r="B22" s="24"/>
       <c r="C22" s="24"/>
-      <c r="D22" s="177" t="s">
+      <c r="D22" s="190" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="178"/>
+      <c r="E22" s="191"/>
       <c r="F22" s="12"/>
       <c r="G22" s="11"/>
-      <c r="H22" s="355"/>
-      <c r="I22" s="356"/>
-      <c r="J22" s="344"/>
-      <c r="K22" s="412"/>
-      <c r="L22" s="413"/>
-      <c r="M22" s="412"/>
-      <c r="N22" s="415"/>
-      <c r="O22" s="413"/>
-      <c r="P22" s="400"/>
-      <c r="Q22" s="403"/>
-      <c r="R22" s="403"/>
-      <c r="S22" s="405"/>
+      <c r="H22" s="399"/>
+      <c r="I22" s="400"/>
+      <c r="J22" s="340"/>
+      <c r="K22" s="343"/>
+      <c r="L22" s="344"/>
+      <c r="M22" s="343"/>
+      <c r="N22" s="346"/>
+      <c r="O22" s="344"/>
+      <c r="P22" s="350"/>
+      <c r="Q22" s="351"/>
+      <c r="R22" s="351"/>
+      <c r="S22" s="352"/>
     </row>
     <row r="23" spans="1:19" ht="21.5" customHeight="1" thickBot="1">
       <c r="A23" s="24"/>
       <c r="B23" s="24"/>
       <c r="C23" s="24"/>
-      <c r="D23" s="357" t="s">
+      <c r="D23" s="401" t="s">
         <v>115</v>
       </c>
-      <c r="E23" s="358"/>
-      <c r="F23" s="358"/>
+      <c r="E23" s="402"/>
+      <c r="F23" s="402"/>
       <c r="G23" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="H23" s="359" t="s">
+      <c r="H23" s="403" t="s">
         <v>71</v>
       </c>
-      <c r="I23" s="236"/>
+      <c r="I23" s="328"/>
       <c r="J23" s="94"/>
-      <c r="K23" s="419"/>
-      <c r="L23" s="419"/>
-      <c r="M23" s="419"/>
-      <c r="N23" s="419"/>
-      <c r="O23" s="419"/>
-      <c r="P23" s="416"/>
-      <c r="Q23" s="417"/>
-      <c r="R23" s="417"/>
-      <c r="S23" s="418"/>
+      <c r="K23" s="356"/>
+      <c r="L23" s="356"/>
+      <c r="M23" s="356"/>
+      <c r="N23" s="356"/>
+      <c r="O23" s="356"/>
+      <c r="P23" s="353"/>
+      <c r="Q23" s="354"/>
+      <c r="R23" s="354"/>
+      <c r="S23" s="355"/>
     </row>
     <row r="24" spans="1:19" ht="21.5" customHeight="1">
       <c r="A24" s="24"/>
@@ -7827,13 +7829,80 @@
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:L22"/>
-    <mergeCell ref="M21:O22"/>
-    <mergeCell ref="P21:S22"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:I19"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="D16:I17"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="Q6:S7"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="P17:S18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="J2:S2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="J3:S5"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="M6:N7"/>
+    <mergeCell ref="O6:P7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:I7"/>
     <mergeCell ref="J19:J20"/>
     <mergeCell ref="K19:L20"/>
     <mergeCell ref="M19:O20"/>
@@ -7850,80 +7919,13 @@
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="J16:S16"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="M6:N7"/>
-    <mergeCell ref="O6:P7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="J2:S2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="J3:S5"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="P17:S18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="Q6:S7"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:I19"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D18:E19"/>
-    <mergeCell ref="D16:I17"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:L22"/>
+    <mergeCell ref="M21:O22"/>
+    <mergeCell ref="P21:S22"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:O23"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
